--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_24_39.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_24_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2404570.228473548</v>
+        <v>2403930.605991018</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5391812.886446384</v>
+        <v>5391812.886446389</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058547</v>
+        <v>632041.4518058543</v>
       </c>
     </row>
     <row r="9">
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>46.59049349768014</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>46.59049349768016</v>
       </c>
       <c r="H11" t="n">
-        <v>46.59049349768014</v>
+        <v>16.13037704467774</v>
       </c>
       <c r="I11" t="n">
-        <v>16.40868780320294</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,10 +1427,10 @@
         <v>24.90652962807896</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>46.59049349768016</v>
       </c>
       <c r="W11" t="n">
-        <v>46.31218273915485</v>
+        <v>46.59049349768016</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1582,13 +1582,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>46.59049349768014</v>
+        <v>46.59049349768016</v>
       </c>
       <c r="V13" t="n">
         <v>19.86366640555892</v>
       </c>
       <c r="W13" t="n">
-        <v>46.59049349768014</v>
+        <v>46.59049349768016</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>46.59049349768014</v>
+        <v>46.59049349768016</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>46.59049349768014</v>
+        <v>41.03690667275666</v>
       </c>
       <c r="H14" t="n">
-        <v>46.59049349768014</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>16.40868780320297</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.652457467951102</v>
+        <v>2.652457467950998</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1667,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>46.59049349768016</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>46.59049349768016</v>
       </c>
       <c r="Y14" t="n">
-        <v>24.62821886955382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>11.98330896818129</v>
+        <v>11.98330896818126</v>
       </c>
       <c r="V15" t="n">
-        <v>15.40357213651129</v>
+        <v>15.40357213651126</v>
       </c>
       <c r="W15" t="n">
-        <v>41.45923479812063</v>
+        <v>41.4592347981206</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>10.32333341659598</v>
+        <v>10.32333341659595</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>46.59049349768014</v>
+        <v>46.59049349768016</v>
       </c>
       <c r="V16" t="n">
-        <v>19.86366640555894</v>
+        <v>19.86366640555892</v>
       </c>
       <c r="W16" t="n">
-        <v>46.59049349768014</v>
+        <v>46.59049349768016</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>12.87680764044517</v>
+        <v>36.19077655206644</v>
       </c>
       <c r="C17" t="n">
-        <v>12.30903355541193</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1853,10 +1853,10 @@
         <v>33.58244823586926</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>33.38416823647388</v>
       </c>
       <c r="G17" t="n">
-        <v>46.59049349768014</v>
+        <v>46.59049349768016</v>
       </c>
       <c r="H17" t="n">
         <v>9.296080705055278</v>
@@ -1910,7 +1910,7 @@
         <v>21.88625046893924</v>
       </c>
       <c r="Y17" t="n">
-        <v>44.389103592683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.16484308369013</v>
+        <v>36.19077655206644</v>
       </c>
       <c r="C20" t="n">
         <v>12.30903355541193</v>
@@ -2087,13 +2087,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>19.56456002930347</v>
       </c>
       <c r="F20" t="n">
-        <v>46.59049349768014</v>
+        <v>46.59049349768016</v>
       </c>
       <c r="G20" t="n">
-        <v>46.59049349768014</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>65.30278581424659</v>
       </c>
       <c r="G23" t="n">
-        <v>77.35165523256904</v>
+        <v>77.35165523256906</v>
       </c>
       <c r="H23" t="n">
         <v>9.29608070505526</v>
@@ -2555,13 +2555,13 @@
         <v>148.8418915989423</v>
       </c>
       <c r="C26" t="n">
-        <v>92.45559432644609</v>
+        <v>92.45559432644856</v>
       </c>
       <c r="D26" t="n">
         <v>112.5268108633363</v>
       </c>
       <c r="E26" t="n">
-        <v>146.2335632827452</v>
+        <v>146.2335632827451</v>
       </c>
       <c r="F26" t="n">
         <v>177.9539008611225</v>
@@ -2570,10 +2570,10 @@
         <v>193.60953561276</v>
       </c>
       <c r="H26" t="n">
-        <v>121.9471957519312</v>
+        <v>121.9471957519311</v>
       </c>
       <c r="I26" t="n">
-        <v>16.40868780320295</v>
+        <v>16.40868780320292</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>2.652457467951074</v>
+        <v>2.652457467951045</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>24.90652962807896</v>
+        <v>24.90652962807893</v>
       </c>
       <c r="V26" t="n">
-        <v>95.63443483026103</v>
+        <v>95.634434830261</v>
       </c>
       <c r="W26" t="n">
         <v>112.6511150468759</v>
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>11.98330896818126</v>
+        <v>11.98330896818123</v>
       </c>
       <c r="V27" t="n">
-        <v>15.40357213651126</v>
+        <v>15.40357213651123</v>
       </c>
       <c r="W27" t="n">
-        <v>41.4592347981206</v>
+        <v>41.45923479812058</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2761,19 +2761,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>10.32333341659595</v>
+        <v>10.32333341659592</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>63.41161707176947</v>
+        <v>63.41161707176944</v>
       </c>
       <c r="V28" t="n">
-        <v>19.86366640555892</v>
+        <v>19.86366640555889</v>
       </c>
       <c r="W28" t="n">
-        <v>65.06535831044434</v>
+        <v>65.06535831044431</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2798,13 +2798,13 @@
         <v>112.5268108633363</v>
       </c>
       <c r="E29" t="n">
-        <v>130.1376968101065</v>
+        <v>146.2335632827451</v>
       </c>
       <c r="F29" t="n">
         <v>177.9539008611225</v>
       </c>
       <c r="G29" t="n">
-        <v>193.60953561276</v>
+        <v>177.5136691401223</v>
       </c>
       <c r="H29" t="n">
         <v>121.9471957519312</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>2.652457467951066</v>
+        <v>2.652457467951086</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>24.90652962807896</v>
+        <v>24.90652962807893</v>
       </c>
       <c r="V29" t="n">
-        <v>95.63443483026103</v>
+        <v>95.634434830261</v>
       </c>
       <c r="W29" t="n">
         <v>112.6511150468759</v>
@@ -2925,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>11.98330896818126</v>
+        <v>11.98330896818123</v>
       </c>
       <c r="V30" t="n">
-        <v>15.40357213651126</v>
+        <v>15.40357213651123</v>
       </c>
       <c r="W30" t="n">
-        <v>41.4592347981206</v>
+        <v>41.45923479812058</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2998,19 +2998,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>10.32333341659594</v>
+        <v>10.32333341659593</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>63.41161707176947</v>
+        <v>63.41161707176944</v>
       </c>
       <c r="V31" t="n">
-        <v>19.86366640555892</v>
+        <v>19.86366640555889</v>
       </c>
       <c r="W31" t="n">
-        <v>65.06535831044434</v>
+        <v>65.06535831044431</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>146.3415412700314</v>
+        <v>146.3415412700315</v>
       </c>
       <c r="C32" t="n">
-        <v>122.4597982733769</v>
+        <v>122.459798273377</v>
       </c>
       <c r="D32" t="n">
         <v>110.0264605344254</v>
@@ -3041,13 +3041,13 @@
         <v>175.4535505322116</v>
       </c>
       <c r="G32" t="n">
-        <v>191.1091852838491</v>
+        <v>191.1091852838492</v>
       </c>
       <c r="H32" t="n">
-        <v>119.4468454230202</v>
+        <v>119.4468454230203</v>
       </c>
       <c r="I32" t="n">
-        <v>13.90833747429204</v>
+        <v>13.9083374742921</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0.1521071390401616</v>
+        <v>0.1521071390402184</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>22.40617929916806</v>
+        <v>22.40617929916812</v>
       </c>
       <c r="V32" t="n">
-        <v>93.13408450135012</v>
+        <v>93.13408450135017</v>
       </c>
       <c r="W32" t="n">
         <v>110.150764717965</v>
       </c>
       <c r="X32" t="n">
-        <v>132.0370151869042</v>
+        <v>132.0370151869043</v>
       </c>
       <c r="Y32" t="n">
         <v>154.539868310648</v>
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>9.482958639270349</v>
+        <v>9.482958639270405</v>
       </c>
       <c r="V33" t="n">
-        <v>12.90322180760035</v>
+        <v>12.9032218076004</v>
       </c>
       <c r="W33" t="n">
-        <v>38.95888446920969</v>
+        <v>38.95888446920975</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3235,19 +3235,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>7.822983087685035</v>
+        <v>7.822983087685092</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>60.91126674285856</v>
+        <v>60.91126674285861</v>
       </c>
       <c r="V34" t="n">
-        <v>17.363316076648</v>
+        <v>17.36331607664806</v>
       </c>
       <c r="W34" t="n">
-        <v>62.56500798153343</v>
+        <v>62.56500798153348</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>132.4332037957393</v>
+        <v>132.4332037957394</v>
       </c>
       <c r="C35" t="n">
-        <v>108.5514607990848</v>
+        <v>108.5514607990849</v>
       </c>
       <c r="D35" t="n">
-        <v>96.11812306013326</v>
+        <v>96.11812306013337</v>
       </c>
       <c r="E35" t="n">
-        <v>129.8248754795421</v>
+        <v>129.8248754795422</v>
       </c>
       <c r="F35" t="n">
-        <v>161.5452130579195</v>
+        <v>161.5452130579196</v>
       </c>
       <c r="G35" t="n">
-        <v>177.200847809557</v>
+        <v>177.2008478095571</v>
       </c>
       <c r="H35" t="n">
-        <v>105.5385079487281</v>
+        <v>105.5385079487282</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>8.497841824875923</v>
+        <v>8.497841824876048</v>
       </c>
       <c r="V35" t="n">
-        <v>79.22574702705799</v>
+        <v>79.22574702705811</v>
       </c>
       <c r="W35" t="n">
-        <v>96.24242724367286</v>
+        <v>96.24242724367298</v>
       </c>
       <c r="X35" t="n">
-        <v>118.1286777126121</v>
+        <v>118.1286777126122</v>
       </c>
       <c r="Y35" t="n">
-        <v>140.6315308363559</v>
+        <v>140.631530836356</v>
       </c>
     </row>
     <row r="36">
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>25.05054699491757</v>
+        <v>25.05054699491768</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>47.00292926856643</v>
+        <v>47.00292926856655</v>
       </c>
       <c r="V37" t="n">
-        <v>3.45497860235588</v>
+        <v>3.454978602355993</v>
       </c>
       <c r="W37" t="n">
-        <v>48.6566705072413</v>
+        <v>48.65667050724142</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>132.4332037957393</v>
+        <v>132.4332037957394</v>
       </c>
       <c r="C38" t="n">
-        <v>108.5514607990848</v>
+        <v>108.5514607990849</v>
       </c>
       <c r="D38" t="n">
-        <v>96.11812306013329</v>
+        <v>96.11812306013334</v>
       </c>
       <c r="E38" t="n">
         <v>129.8248754795422</v>
@@ -3515,7 +3515,7 @@
         <v>161.5452130579195</v>
       </c>
       <c r="G38" t="n">
-        <v>177.200847809557</v>
+        <v>177.2008478095571</v>
       </c>
       <c r="H38" t="n">
         <v>105.5385079487282</v>
@@ -3557,16 +3557,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>8.497841824875952</v>
+        <v>8.497841824876019</v>
       </c>
       <c r="V38" t="n">
-        <v>79.22574702705802</v>
+        <v>79.22574702705808</v>
       </c>
       <c r="W38" t="n">
-        <v>96.24242724367289</v>
+        <v>96.24242724367295</v>
       </c>
       <c r="X38" t="n">
-        <v>118.1286777126121</v>
+        <v>118.1286777126122</v>
       </c>
       <c r="Y38" t="n">
         <v>140.6315308363559</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>25.0505469949176</v>
+        <v>25.05054699491765</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>47.00292926856646</v>
+        <v>47.00292926856652</v>
       </c>
       <c r="V40" t="n">
-        <v>3.454978602355908</v>
+        <v>3.454978602355965</v>
       </c>
       <c r="W40" t="n">
-        <v>48.65667050724133</v>
+        <v>48.65667050724139</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,10 +3743,10 @@
         <v>108.5514607990849</v>
       </c>
       <c r="D41" t="n">
-        <v>96.11812306013337</v>
+        <v>96.1181230601334</v>
       </c>
       <c r="E41" t="n">
-        <v>129.8248754795422</v>
+        <v>129.8248754795423</v>
       </c>
       <c r="F41" t="n">
         <v>161.5452130579196</v>
@@ -3755,7 +3755,7 @@
         <v>177.2008478095571</v>
       </c>
       <c r="H41" t="n">
-        <v>105.5385079487282</v>
+        <v>105.5385079487283</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>8.497841824876037</v>
+        <v>8.497841824876065</v>
       </c>
       <c r="V41" t="n">
-        <v>79.22574702705811</v>
+        <v>79.22574702705813</v>
       </c>
       <c r="W41" t="n">
-        <v>96.24242724367298</v>
+        <v>96.24242724367301</v>
       </c>
       <c r="X41" t="n">
         <v>118.1286777126122</v>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>25.05054699491768</v>
+        <v>25.05054699491771</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.00292926856655</v>
+        <v>47.00292926856658</v>
       </c>
       <c r="V43" t="n">
-        <v>3.454978602355993</v>
+        <v>3.454978602356022</v>
       </c>
       <c r="W43" t="n">
-        <v>48.65667050724142</v>
+        <v>48.65667050724144</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>108.5514607990849</v>
       </c>
       <c r="D44" t="n">
-        <v>96.11812306013337</v>
+        <v>96.1181230601334</v>
       </c>
       <c r="E44" t="n">
-        <v>129.8248754795422</v>
+        <v>129.8248754795423</v>
       </c>
       <c r="F44" t="n">
         <v>161.5452130579196</v>
@@ -3992,7 +3992,7 @@
         <v>177.2008478095571</v>
       </c>
       <c r="H44" t="n">
-        <v>105.5385079487282</v>
+        <v>105.5385079487283</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>8.497841824877263</v>
+        <v>8.497841824876065</v>
       </c>
       <c r="V44" t="n">
-        <v>79.22574702705811</v>
+        <v>79.22574702705813</v>
       </c>
       <c r="W44" t="n">
-        <v>96.24242724367298</v>
+        <v>96.24242724367301</v>
       </c>
       <c r="X44" t="n">
         <v>118.1286777126122</v>
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>25.05054699491768</v>
+        <v>25.05054699491771</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>47.00292926856655</v>
+        <v>47.00292926856658</v>
       </c>
       <c r="V46" t="n">
-        <v>3.454978602355993</v>
+        <v>3.454978602356022</v>
       </c>
       <c r="W46" t="n">
-        <v>48.65667050724142</v>
+        <v>48.65667050724144</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>114.4238806904843</v>
+        <v>67.08165416906482</v>
       </c>
       <c r="C11" t="n">
-        <v>114.4238806904843</v>
+        <v>67.08165416906482</v>
       </c>
       <c r="D11" t="n">
-        <v>67.36277614737304</v>
+        <v>67.08165416906482</v>
       </c>
       <c r="E11" t="n">
-        <v>67.36277614737304</v>
+        <v>67.08165416906482</v>
       </c>
       <c r="F11" t="n">
-        <v>67.36277614737304</v>
+        <v>67.08165416906482</v>
       </c>
       <c r="G11" t="n">
-        <v>67.36277614737304</v>
+        <v>20.02054962595355</v>
       </c>
       <c r="H11" t="n">
-        <v>20.3016716042618</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="I11" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="J11" t="n">
-        <v>18.96729474910754</v>
+        <v>49.85182804251777</v>
       </c>
       <c r="K11" t="n">
-        <v>18.96729474910754</v>
+        <v>56.13453916352454</v>
       </c>
       <c r="L11" t="n">
-        <v>18.96729474910754</v>
+        <v>56.13453916352454</v>
       </c>
       <c r="M11" t="n">
-        <v>18.96729474910754</v>
+        <v>102.2591277262279</v>
       </c>
       <c r="N11" t="n">
-        <v>65.09188331181088</v>
+        <v>111.2164718745143</v>
       </c>
       <c r="O11" t="n">
-        <v>65.09188331181088</v>
+        <v>157.3410604372176</v>
       </c>
       <c r="P11" t="n">
-        <v>111.2164718745142</v>
+        <v>157.3410604372176</v>
       </c>
       <c r="Q11" t="n">
-        <v>157.3410604372175</v>
+        <v>157.3410604372176</v>
       </c>
       <c r="R11" t="n">
-        <v>186.3619739907205</v>
+        <v>186.3619739907206</v>
       </c>
       <c r="S11" t="n">
-        <v>183.6827240230933</v>
+        <v>183.6827240230934</v>
       </c>
       <c r="T11" t="n">
-        <v>186.3619739907205</v>
+        <v>186.3619739907206</v>
       </c>
       <c r="U11" t="n">
-        <v>161.2038632552873</v>
+        <v>161.2038632552874</v>
       </c>
       <c r="V11" t="n">
-        <v>161.2038632552873</v>
+        <v>114.1427587121761</v>
       </c>
       <c r="W11" t="n">
-        <v>114.4238806904843</v>
+        <v>67.08165416906482</v>
       </c>
       <c r="X11" t="n">
-        <v>114.4238806904843</v>
+        <v>67.08165416906482</v>
       </c>
       <c r="Y11" t="n">
-        <v>114.4238806904843</v>
+        <v>67.08165416906482</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.58034947584059</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="C12" t="n">
-        <v>11.58034947584059</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="D12" t="n">
-        <v>11.58034947584059</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="E12" t="n">
-        <v>11.58034947584059</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="F12" t="n">
-        <v>11.58034947584059</v>
+        <v>49.85182804251777</v>
       </c>
       <c r="G12" t="n">
-        <v>11.58034947584059</v>
+        <v>49.85182804251777</v>
       </c>
       <c r="H12" t="n">
-        <v>11.58034947584059</v>
+        <v>49.85182804251777</v>
       </c>
       <c r="I12" t="n">
-        <v>11.58034947584059</v>
+        <v>49.85182804251777</v>
       </c>
       <c r="J12" t="n">
-        <v>11.58034947584059</v>
+        <v>49.85182804251777</v>
       </c>
       <c r="K12" t="n">
-        <v>11.58034947584059</v>
+        <v>49.85182804251777</v>
       </c>
       <c r="L12" t="n">
-        <v>11.58034947584059</v>
+        <v>49.85182804251777</v>
       </c>
       <c r="M12" t="n">
-        <v>11.58034947584059</v>
+        <v>49.85182804251777</v>
       </c>
       <c r="N12" t="n">
-        <v>11.58034947584059</v>
+        <v>49.85182804251777</v>
       </c>
       <c r="O12" t="n">
-        <v>27.14418213207382</v>
+        <v>49.85182804251777</v>
       </c>
       <c r="P12" t="n">
-        <v>73.26877069477716</v>
+        <v>49.85182804251777</v>
       </c>
       <c r="Q12" t="n">
-        <v>73.26877069477716</v>
+        <v>49.85182804251777</v>
       </c>
       <c r="R12" t="n">
-        <v>73.26877069477716</v>
+        <v>73.26877069477717</v>
       </c>
       <c r="S12" t="n">
-        <v>73.26877069477716</v>
+        <v>73.26877069477717</v>
       </c>
       <c r="T12" t="n">
-        <v>73.26877069477716</v>
+        <v>73.26877069477717</v>
       </c>
       <c r="U12" t="n">
-        <v>61.16441820166478</v>
+        <v>61.16441820166479</v>
       </c>
       <c r="V12" t="n">
-        <v>45.60525442741098</v>
+        <v>45.60525442741099</v>
       </c>
       <c r="W12" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="X12" t="n">
-        <v>11.58034947584059</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.58034947584059</v>
+        <v>3.727239479814413</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.14446247945972</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="C13" t="n">
-        <v>53.14446247945972</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="D13" t="n">
-        <v>53.14446247945972</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="E13" t="n">
-        <v>53.14446247945972</v>
+        <v>49.85182804251777</v>
       </c>
       <c r="F13" t="n">
-        <v>53.14446247945972</v>
+        <v>49.85182804251777</v>
       </c>
       <c r="G13" t="n">
-        <v>82.21677901561122</v>
+        <v>49.85182804251777</v>
       </c>
       <c r="H13" t="n">
-        <v>128.3413675783146</v>
+        <v>49.85182804251777</v>
       </c>
       <c r="I13" t="n">
-        <v>128.3413675783146</v>
+        <v>49.85182804251777</v>
       </c>
       <c r="J13" t="n">
-        <v>128.3413675783146</v>
+        <v>82.21677901561124</v>
       </c>
       <c r="K13" t="n">
-        <v>128.3413675783146</v>
+        <v>82.21677901561124</v>
       </c>
       <c r="L13" t="n">
         <v>128.3413675783146</v>
@@ -5230,19 +5230,19 @@
         <v>117.9137580666015</v>
       </c>
       <c r="U13" t="n">
-        <v>70.85265352349022</v>
+        <v>70.85265352349025</v>
       </c>
       <c r="V13" t="n">
-        <v>50.78834402292566</v>
+        <v>50.78834402292568</v>
       </c>
       <c r="W13" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="X13" t="n">
-        <v>7.019873916756385</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.019873916756385</v>
+        <v>3.727239479814413</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>161.4849852335955</v>
+        <v>92.23976490449809</v>
       </c>
       <c r="C14" t="n">
-        <v>114.4238806904842</v>
+        <v>45.1786603613868</v>
       </c>
       <c r="D14" t="n">
-        <v>114.4238806904842</v>
+        <v>45.1786603613868</v>
       </c>
       <c r="E14" t="n">
-        <v>114.4238806904842</v>
+        <v>45.1786603613868</v>
       </c>
       <c r="F14" t="n">
-        <v>114.4238806904842</v>
+        <v>45.1786603613868</v>
       </c>
       <c r="G14" t="n">
-        <v>67.36277614737311</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="H14" t="n">
-        <v>20.30167160426186</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="I14" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="J14" t="n">
-        <v>40.82329339995382</v>
+        <v>49.85182804251777</v>
       </c>
       <c r="K14" t="n">
-        <v>40.82329339995382</v>
+        <v>56.13453916352454</v>
       </c>
       <c r="L14" t="n">
-        <v>84.93331893672908</v>
+        <v>100.2445647002998</v>
       </c>
       <c r="M14" t="n">
-        <v>84.93331893672908</v>
+        <v>100.2445647002998</v>
       </c>
       <c r="N14" t="n">
-        <v>131.0579074994324</v>
+        <v>140.2373854280173</v>
       </c>
       <c r="O14" t="n">
-        <v>157.3410604372175</v>
+        <v>186.3619739907206</v>
       </c>
       <c r="P14" t="n">
-        <v>157.3410604372175</v>
+        <v>186.3619739907206</v>
       </c>
       <c r="Q14" t="n">
-        <v>157.3410604372175</v>
+        <v>186.3619739907206</v>
       </c>
       <c r="R14" t="n">
-        <v>186.3619739907205</v>
+        <v>186.3619739907206</v>
       </c>
       <c r="S14" t="n">
-        <v>183.6827240230933</v>
+        <v>183.6827240230934</v>
       </c>
       <c r="T14" t="n">
-        <v>186.3619739907205</v>
+        <v>186.3619739907206</v>
       </c>
       <c r="U14" t="n">
-        <v>186.3619739907205</v>
+        <v>186.3619739907206</v>
       </c>
       <c r="V14" t="n">
-        <v>186.3619739907205</v>
+        <v>186.3619739907206</v>
       </c>
       <c r="W14" t="n">
-        <v>186.3619739907205</v>
+        <v>139.3008694476094</v>
       </c>
       <c r="X14" t="n">
-        <v>186.3619739907205</v>
+        <v>92.23976490449809</v>
       </c>
       <c r="Y14" t="n">
-        <v>161.4849852335955</v>
+        <v>92.23976490449809</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11.58034947584056</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="C15" t="n">
-        <v>11.58034947584056</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="D15" t="n">
-        <v>11.58034947584056</v>
+        <v>49.85182804251777</v>
       </c>
       <c r="E15" t="n">
-        <v>11.58034947584056</v>
+        <v>49.85182804251777</v>
       </c>
       <c r="F15" t="n">
-        <v>11.58034947584056</v>
+        <v>49.85182804251777</v>
       </c>
       <c r="G15" t="n">
-        <v>27.14418213207391</v>
+        <v>49.85182804251777</v>
       </c>
       <c r="H15" t="n">
-        <v>73.26877069477725</v>
+        <v>49.85182804251777</v>
       </c>
       <c r="I15" t="n">
-        <v>73.26877069477725</v>
+        <v>49.85182804251777</v>
       </c>
       <c r="J15" t="n">
-        <v>73.26877069477725</v>
+        <v>49.85182804251777</v>
       </c>
       <c r="K15" t="n">
-        <v>73.26877069477725</v>
+        <v>49.85182804251777</v>
       </c>
       <c r="L15" t="n">
-        <v>73.26877069477725</v>
+        <v>49.85182804251777</v>
       </c>
       <c r="M15" t="n">
-        <v>73.26877069477725</v>
+        <v>49.85182804251777</v>
       </c>
       <c r="N15" t="n">
-        <v>73.26877069477725</v>
+        <v>49.85182804251777</v>
       </c>
       <c r="O15" t="n">
-        <v>73.26877069477725</v>
+        <v>73.26877069477717</v>
       </c>
       <c r="P15" t="n">
-        <v>73.26877069477725</v>
+        <v>73.26877069477717</v>
       </c>
       <c r="Q15" t="n">
-        <v>73.26877069477725</v>
+        <v>73.26877069477717</v>
       </c>
       <c r="R15" t="n">
-        <v>73.26877069477725</v>
+        <v>73.26877069477717</v>
       </c>
       <c r="S15" t="n">
-        <v>73.26877069477725</v>
+        <v>73.26877069477717</v>
       </c>
       <c r="T15" t="n">
-        <v>73.26877069477725</v>
+        <v>73.26877069477717</v>
       </c>
       <c r="U15" t="n">
-        <v>61.16441820166484</v>
+        <v>61.16441820166479</v>
       </c>
       <c r="V15" t="n">
-        <v>45.60525442741101</v>
+        <v>45.60525442741099</v>
       </c>
       <c r="W15" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="X15" t="n">
-        <v>11.58034947584056</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.58034947584056</v>
+        <v>3.727239479814413</v>
       </c>
     </row>
     <row r="16">
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="C16" t="n">
-        <v>49.85182804251775</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="D16" t="n">
-        <v>49.85182804251775</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="E16" t="n">
-        <v>49.85182804251775</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="F16" t="n">
-        <v>49.85182804251775</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="G16" t="n">
-        <v>49.85182804251775</v>
+        <v>49.85182804251777</v>
       </c>
       <c r="H16" t="n">
-        <v>82.21677901561128</v>
+        <v>49.85182804251777</v>
       </c>
       <c r="I16" t="n">
-        <v>82.21677901561128</v>
+        <v>49.85182804251777</v>
       </c>
       <c r="J16" t="n">
-        <v>82.21677901561128</v>
+        <v>49.85182804251777</v>
       </c>
       <c r="K16" t="n">
-        <v>82.21677901561128</v>
+        <v>49.85182804251777</v>
       </c>
       <c r="L16" t="n">
-        <v>82.21677901561128</v>
+        <v>82.21677901561124</v>
       </c>
       <c r="M16" t="n">
-        <v>82.21677901561128</v>
+        <v>82.21677901561124</v>
       </c>
       <c r="N16" t="n">
-        <v>82.21677901561128</v>
+        <v>82.21677901561124</v>
       </c>
       <c r="O16" t="n">
-        <v>82.21677901561128</v>
+        <v>82.21677901561124</v>
       </c>
       <c r="P16" t="n">
-        <v>82.21677901561128</v>
+        <v>128.3413675783146</v>
       </c>
       <c r="Q16" t="n">
         <v>128.3413675783146</v>
@@ -5470,16 +5470,16 @@
         <v>70.85265352349025</v>
       </c>
       <c r="V16" t="n">
-        <v>50.78834402292566</v>
+        <v>50.78834402292568</v>
       </c>
       <c r="W16" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="X16" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>106.4102955037837</v>
+        <v>127.6983103331391</v>
       </c>
       <c r="C17" t="n">
-        <v>93.97692827609487</v>
+        <v>127.6983103331391</v>
       </c>
       <c r="D17" t="n">
-        <v>94.09998941779904</v>
+        <v>127.8213714748433</v>
       </c>
       <c r="E17" t="n">
-        <v>60.17832453308259</v>
+        <v>93.89970659012693</v>
       </c>
       <c r="F17" t="n">
-        <v>60.17832453308259</v>
+        <v>60.17832453308255</v>
       </c>
       <c r="G17" t="n">
-        <v>13.11721998997135</v>
+        <v>13.11721998997126</v>
       </c>
       <c r="H17" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="I17" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="J17" t="n">
-        <v>3.727239479814411</v>
+        <v>31.14169488816184</v>
       </c>
       <c r="K17" t="n">
-        <v>3.727239479814411</v>
+        <v>77.26628345086519</v>
       </c>
       <c r="L17" t="n">
-        <v>3.727239479814411</v>
+        <v>77.26628345086519</v>
       </c>
       <c r="M17" t="n">
-        <v>3.727239479814411</v>
+        <v>77.26628345086519</v>
       </c>
       <c r="N17" t="n">
-        <v>49.85182804251775</v>
+        <v>77.26628345086519</v>
       </c>
       <c r="O17" t="n">
-        <v>49.85182804251775</v>
+        <v>77.26628345086519</v>
       </c>
       <c r="P17" t="n">
-        <v>94.11279686531387</v>
+        <v>77.26628345086519</v>
       </c>
       <c r="Q17" t="n">
-        <v>94.11279686531387</v>
+        <v>77.26628345086519</v>
       </c>
       <c r="R17" t="n">
-        <v>140.2373854280172</v>
+        <v>77.26628345086519</v>
       </c>
       <c r="S17" t="n">
-        <v>186.3619739907205</v>
+        <v>77.26628345086519</v>
       </c>
       <c r="T17" t="n">
-        <v>186.3619739907205</v>
+        <v>123.3908720135685</v>
       </c>
       <c r="U17" t="n">
-        <v>186.3619739907205</v>
+        <v>169.5154605762719</v>
       </c>
       <c r="V17" t="n">
-        <v>186.3619739907205</v>
+        <v>186.3619739907206</v>
       </c>
       <c r="W17" t="n">
-        <v>186.3619739907205</v>
+        <v>186.3619739907207</v>
       </c>
       <c r="X17" t="n">
-        <v>164.2546502847213</v>
+        <v>164.2546502847214</v>
       </c>
       <c r="Y17" t="n">
-        <v>119.4171719082738</v>
+        <v>164.2546502847214</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="C18" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="D18" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="E18" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="F18" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="G18" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="H18" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="I18" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="J18" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="K18" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="L18" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="M18" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="N18" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="O18" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="P18" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="R18" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="S18" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="T18" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="U18" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="V18" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="W18" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="X18" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="C19" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="D19" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="E19" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="F19" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="G19" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="H19" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="I19" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="J19" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="K19" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="L19" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="M19" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="N19" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="O19" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="P19" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="R19" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="S19" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="T19" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="U19" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="V19" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="W19" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="X19" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
     </row>
     <row r="20">
@@ -5726,70 +5726,70 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>110.1597546520213</v>
+        <v>82.86083195669147</v>
       </c>
       <c r="C20" t="n">
-        <v>97.72638742433242</v>
+        <v>70.42746472900268</v>
       </c>
       <c r="D20" t="n">
-        <v>97.8494485660369</v>
+        <v>70.55052587070696</v>
       </c>
       <c r="E20" t="n">
-        <v>97.8494485660369</v>
+        <v>50.78834402292568</v>
       </c>
       <c r="F20" t="n">
-        <v>50.78834402292566</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="G20" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="H20" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="I20" t="n">
-        <v>3.727239479814411</v>
+        <v>49.85182804251777</v>
       </c>
       <c r="J20" t="n">
-        <v>3.727239479814411</v>
+        <v>94.11279686531391</v>
       </c>
       <c r="K20" t="n">
-        <v>3.727239479814411</v>
+        <v>140.2373854280173</v>
       </c>
       <c r="L20" t="n">
-        <v>3.727239479814411</v>
+        <v>140.2373854280173</v>
       </c>
       <c r="M20" t="n">
-        <v>3.727239479814411</v>
+        <v>140.2373854280173</v>
       </c>
       <c r="N20" t="n">
-        <v>3.727239479814411</v>
+        <v>140.2373854280173</v>
       </c>
       <c r="O20" t="n">
-        <v>31.14169488816182</v>
+        <v>140.2373854280173</v>
       </c>
       <c r="P20" t="n">
-        <v>31.14169488816182</v>
+        <v>140.2373854280173</v>
       </c>
       <c r="Q20" t="n">
-        <v>31.14169488816182</v>
+        <v>140.2373854280173</v>
       </c>
       <c r="R20" t="n">
-        <v>31.14169488816182</v>
+        <v>186.3619739907206</v>
       </c>
       <c r="S20" t="n">
-        <v>77.26628345086516</v>
+        <v>186.3619739907206</v>
       </c>
       <c r="T20" t="n">
-        <v>123.3908720135685</v>
+        <v>186.3619739907206</v>
       </c>
       <c r="U20" t="n">
-        <v>169.5154605762718</v>
+        <v>186.3619739907206</v>
       </c>
       <c r="V20" t="n">
-        <v>186.3619739907205</v>
+        <v>186.3619739907206</v>
       </c>
       <c r="W20" t="n">
-        <v>186.3619739907205</v>
+        <v>186.3619739907206</v>
       </c>
       <c r="X20" t="n">
         <v>164.2546502847213</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="C21" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="D21" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="E21" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="F21" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="G21" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="H21" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="I21" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="J21" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="K21" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="L21" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="M21" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="N21" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="O21" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="P21" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="R21" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="S21" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="T21" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="U21" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="V21" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="W21" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="X21" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="C22" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="D22" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="E22" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="F22" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="G22" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="H22" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="I22" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="J22" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="K22" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="L22" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="M22" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="N22" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="O22" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="P22" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="R22" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="S22" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="T22" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="U22" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="V22" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="W22" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="X22" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.727239479814411</v>
+        <v>3.727239479814413</v>
       </c>
     </row>
     <row r="23">
@@ -5981,46 +5981,46 @@
         <v>15.57811292876235</v>
       </c>
       <c r="H23" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="I23" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="J23" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="K23" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="L23" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="M23" t="n">
-        <v>82.76627109884888</v>
+        <v>82.76627109884889</v>
       </c>
       <c r="N23" t="n">
-        <v>159.3444097790922</v>
+        <v>139.4038301553408</v>
       </c>
       <c r="O23" t="n">
-        <v>159.3444097790922</v>
+        <v>139.4038301553408</v>
       </c>
       <c r="P23" t="n">
-        <v>159.3444097790922</v>
+        <v>139.4038301553408</v>
       </c>
       <c r="Q23" t="n">
-        <v>159.3444097790922</v>
+        <v>139.4038301553408</v>
       </c>
       <c r="R23" t="n">
-        <v>235.9225484593356</v>
+        <v>139.4038301553408</v>
       </c>
       <c r="S23" t="n">
-        <v>235.9225484593356</v>
+        <v>215.9819688355841</v>
       </c>
       <c r="T23" t="n">
-        <v>235.9225484593356</v>
+        <v>292.5601075158275</v>
       </c>
       <c r="U23" t="n">
-        <v>309.4066209302762</v>
+        <v>292.5601075158275</v>
       </c>
       <c r="V23" t="n">
         <v>309.4066209302762</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="C24" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="D24" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="E24" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="F24" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="G24" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="H24" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="I24" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="J24" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="K24" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="L24" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="M24" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="N24" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="O24" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="P24" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="R24" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="S24" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="T24" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="U24" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="V24" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="W24" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="X24" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="C25" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="D25" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="E25" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="F25" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="G25" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="H25" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="I25" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="J25" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="K25" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="L25" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="M25" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="N25" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="O25" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="P25" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="R25" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="S25" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="T25" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="U25" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="V25" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="W25" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="X25" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.188132418605524</v>
+        <v>6.188132418605525</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>901.4713663231657</v>
+        <v>901.4713663231669</v>
       </c>
       <c r="C26" t="n">
-        <v>808.081877104533</v>
+        <v>808.0818771045326</v>
       </c>
       <c r="D26" t="n">
-        <v>694.4184317880316</v>
+        <v>694.4184317880313</v>
       </c>
       <c r="E26" t="n">
-        <v>546.7077618054608</v>
+        <v>546.7077618054604</v>
       </c>
       <c r="F26" t="n">
-        <v>366.9563467942259</v>
+        <v>366.9563467942256</v>
       </c>
       <c r="G26" t="n">
-        <v>171.3911593065895</v>
+        <v>171.3911593065893</v>
       </c>
       <c r="H26" t="n">
-        <v>48.21217369857806</v>
+        <v>48.21217369857804</v>
       </c>
       <c r="I26" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="J26" t="n">
         <v>177.2126560594589</v>
       </c>
       <c r="K26" t="n">
-        <v>391.4411322531192</v>
+        <v>391.4411322531193</v>
       </c>
       <c r="L26" t="n">
-        <v>658.5440530809966</v>
+        <v>569.7299878469541</v>
       </c>
       <c r="M26" t="n">
-        <v>959.4938105582936</v>
+        <v>870.6797453242511</v>
       </c>
       <c r="N26" t="n">
-        <v>1254.862555550159</v>
+        <v>1166.048490316116</v>
       </c>
       <c r="O26" t="n">
-        <v>1449.495402947881</v>
+        <v>1420.474489394379</v>
       </c>
       <c r="P26" t="n">
-        <v>1449.495402947881</v>
+        <v>1420.474489394379</v>
       </c>
       <c r="Q26" t="n">
-        <v>1581.887078706532</v>
+        <v>1552.866165153029</v>
       </c>
       <c r="R26" t="n">
         <v>1581.887078706532</v>
       </c>
       <c r="S26" t="n">
-        <v>1579.207828738904</v>
+        <v>1579.207828738905</v>
       </c>
       <c r="T26" t="n">
         <v>1581.887078706532</v>
       </c>
       <c r="U26" t="n">
-        <v>1556.728967971098</v>
+        <v>1556.728967971099</v>
       </c>
       <c r="V26" t="n">
         <v>1460.128528748613</v>
       </c>
       <c r="W26" t="n">
-        <v>1346.339523650758</v>
+        <v>1346.339523650759</v>
       </c>
       <c r="X26" t="n">
-        <v>1210.443194846904</v>
+        <v>1210.443194846905</v>
       </c>
       <c r="Y26" t="n">
-        <v>1051.816711372602</v>
+        <v>1051.816711372604</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="C27" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="D27" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="E27" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="F27" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="G27" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="H27" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="I27" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="J27" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="K27" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="L27" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="M27" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="N27" t="n">
-        <v>31.63774157413063</v>
+        <v>101.1792727890933</v>
       </c>
       <c r="O27" t="n">
-        <v>101.1792727890934</v>
+        <v>101.1792727890933</v>
       </c>
       <c r="P27" t="n">
-        <v>101.1792727890934</v>
+        <v>101.1792727890933</v>
       </c>
       <c r="Q27" t="n">
-        <v>101.1792727890934</v>
+        <v>101.1792727890933</v>
       </c>
       <c r="R27" t="n">
-        <v>101.1792727890934</v>
+        <v>101.1792727890933</v>
       </c>
       <c r="S27" t="n">
-        <v>101.1792727890934</v>
+        <v>101.1792727890933</v>
       </c>
       <c r="T27" t="n">
-        <v>101.1792727890934</v>
+        <v>101.1792727890933</v>
       </c>
       <c r="U27" t="n">
-        <v>89.074920295981</v>
+        <v>89.07492029598097</v>
       </c>
       <c r="V27" t="n">
-        <v>73.51575652172721</v>
+        <v>73.5157565217272</v>
       </c>
       <c r="W27" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="X27" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="Y27" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34.93037601107261</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="C28" t="n">
-        <v>34.93037601107261</v>
+        <v>89.83802770298013</v>
       </c>
       <c r="D28" t="n">
-        <v>34.93037601107261</v>
+        <v>89.83802770298013</v>
       </c>
       <c r="E28" t="n">
-        <v>117.6638915020719</v>
+        <v>89.83802770298013</v>
       </c>
       <c r="F28" t="n">
-        <v>117.6638915020719</v>
+        <v>89.83802770298013</v>
       </c>
       <c r="G28" t="n">
-        <v>117.6638915020719</v>
+        <v>112.8750293125899</v>
       </c>
       <c r="H28" t="n">
-        <v>176.4246518114073</v>
+        <v>112.8750293125899</v>
       </c>
       <c r="I28" t="n">
-        <v>176.4246518114073</v>
+        <v>112.8750293125899</v>
       </c>
       <c r="J28" t="n">
-        <v>176.4246518114073</v>
+        <v>112.8750293125899</v>
       </c>
       <c r="K28" t="n">
-        <v>176.4246518114073</v>
+        <v>112.8750293125899</v>
       </c>
       <c r="L28" t="n">
-        <v>176.4246518114073</v>
+        <v>112.8750293125899</v>
       </c>
       <c r="M28" t="n">
-        <v>191.904383194705</v>
+        <v>112.8750293125899</v>
       </c>
       <c r="N28" t="n">
-        <v>191.904383194705</v>
+        <v>112.8750293125899</v>
       </c>
       <c r="O28" t="n">
-        <v>191.904383194705</v>
+        <v>112.8750293125899</v>
       </c>
       <c r="P28" t="n">
-        <v>191.904383194705</v>
+        <v>190.4671395758787</v>
       </c>
       <c r="Q28" t="n">
-        <v>191.904383194705</v>
+        <v>190.4671395758787</v>
       </c>
       <c r="R28" t="n">
-        <v>191.904383194705</v>
+        <v>190.4671395758787</v>
       </c>
       <c r="S28" t="n">
-        <v>181.476773682992</v>
+        <v>180.0395300641656</v>
       </c>
       <c r="T28" t="n">
-        <v>181.476773682992</v>
+        <v>181.4767736829919</v>
       </c>
       <c r="U28" t="n">
-        <v>117.4246352266592</v>
+        <v>117.4246352266591</v>
       </c>
       <c r="V28" t="n">
-        <v>97.36032572609462</v>
+        <v>97.3603257260946</v>
       </c>
       <c r="W28" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="X28" t="n">
-        <v>34.93037601107261</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="Y28" t="n">
-        <v>34.93037601107261</v>
+        <v>31.63774157413065</v>
       </c>
     </row>
     <row r="29">
@@ -6437,49 +6437,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>901.4713663231657</v>
+        <v>901.4713663231662</v>
       </c>
       <c r="C29" t="n">
-        <v>775.2489939976225</v>
+        <v>775.2489939976231</v>
       </c>
       <c r="D29" t="n">
-        <v>661.5855486811212</v>
+        <v>661.5855486811217</v>
       </c>
       <c r="E29" t="n">
-        <v>530.1333296810133</v>
+        <v>513.8748786985508</v>
       </c>
       <c r="F29" t="n">
-        <v>350.3819146697784</v>
+        <v>334.123463687316</v>
       </c>
       <c r="G29" t="n">
-        <v>154.8167271821419</v>
+        <v>154.816727182142</v>
       </c>
       <c r="H29" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="I29" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="J29" t="n">
-        <v>177.2126560594589</v>
+        <v>177.2126560594587</v>
       </c>
       <c r="K29" t="n">
-        <v>391.4411322531193</v>
+        <v>229.345993250248</v>
       </c>
       <c r="L29" t="n">
-        <v>658.5440530809967</v>
+        <v>496.4489140781251</v>
       </c>
       <c r="M29" t="n">
-        <v>736.5009152671917</v>
+        <v>797.3986715554217</v>
       </c>
       <c r="N29" t="n">
-        <v>1031.869660259057</v>
+        <v>1092.767416547287</v>
       </c>
       <c r="O29" t="n">
-        <v>1286.29565933732</v>
+        <v>1347.193415625549</v>
       </c>
       <c r="P29" t="n">
-        <v>1420.474489394378</v>
+        <v>1552.866165153029</v>
       </c>
       <c r="Q29" t="n">
         <v>1552.866165153029</v>
@@ -6488,25 +6488,25 @@
         <v>1581.887078706532</v>
       </c>
       <c r="S29" t="n">
-        <v>1579.207828738904</v>
+        <v>1579.207828738905</v>
       </c>
       <c r="T29" t="n">
         <v>1581.887078706532</v>
       </c>
       <c r="U29" t="n">
-        <v>1556.728967971098</v>
+        <v>1556.728967971099</v>
       </c>
       <c r="V29" t="n">
         <v>1460.128528748613</v>
       </c>
       <c r="W29" t="n">
-        <v>1346.339523650758</v>
+        <v>1346.339523650759</v>
       </c>
       <c r="X29" t="n">
-        <v>1210.443194846904</v>
+        <v>1210.443194846905</v>
       </c>
       <c r="Y29" t="n">
-        <v>1051.816711372602</v>
+        <v>1051.816711372603</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="C30" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="D30" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="E30" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="F30" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="G30" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="H30" t="n">
-        <v>51.54888591181179</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="I30" t="n">
-        <v>51.54888591181179</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="J30" t="n">
-        <v>51.54888591181179</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="K30" t="n">
-        <v>88.08280986496953</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="L30" t="n">
-        <v>88.08280986496953</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="M30" t="n">
-        <v>88.08280986496953</v>
+        <v>101.1792727890933</v>
       </c>
       <c r="N30" t="n">
-        <v>88.08280986496953</v>
+        <v>101.1792727890933</v>
       </c>
       <c r="O30" t="n">
-        <v>101.1792727890934</v>
+        <v>101.1792727890933</v>
       </c>
       <c r="P30" t="n">
-        <v>101.1792727890934</v>
+        <v>101.1792727890933</v>
       </c>
       <c r="Q30" t="n">
-        <v>101.1792727890934</v>
+        <v>101.1792727890933</v>
       </c>
       <c r="R30" t="n">
-        <v>101.1792727890934</v>
+        <v>101.1792727890933</v>
       </c>
       <c r="S30" t="n">
-        <v>101.1792727890934</v>
+        <v>101.1792727890933</v>
       </c>
       <c r="T30" t="n">
-        <v>101.1792727890934</v>
+        <v>101.1792727890933</v>
       </c>
       <c r="U30" t="n">
-        <v>89.074920295981</v>
+        <v>89.07492029598097</v>
       </c>
       <c r="V30" t="n">
-        <v>73.51575652172721</v>
+        <v>73.5157565217272</v>
       </c>
       <c r="W30" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="X30" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="Y30" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
     </row>
     <row r="31">
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="C31" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="D31" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="E31" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="F31" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="G31" t="n">
-        <v>87.60944847733013</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="H31" t="n">
-        <v>146.3702087866654</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="I31" t="n">
-        <v>146.3702087866654</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="J31" t="n">
-        <v>146.3702087866654</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="K31" t="n">
-        <v>146.3702087866654</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="L31" t="n">
-        <v>191.904383194705</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="M31" t="n">
         <v>191.904383194705</v>
@@ -6646,25 +6646,25 @@
         <v>191.904383194705</v>
       </c>
       <c r="S31" t="n">
-        <v>181.476773682992</v>
+        <v>181.4767736829919</v>
       </c>
       <c r="T31" t="n">
-        <v>181.476773682992</v>
+        <v>181.4767736829919</v>
       </c>
       <c r="U31" t="n">
-        <v>117.4246352266592</v>
+        <v>117.4246352266591</v>
       </c>
       <c r="V31" t="n">
-        <v>97.36032572609462</v>
+        <v>97.3603257260946</v>
       </c>
       <c r="W31" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="X31" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>916.625004680201</v>
+        <v>916.6250046802014</v>
       </c>
       <c r="C32" t="n">
-        <v>792.9282387474969</v>
+        <v>792.9282387474974</v>
       </c>
       <c r="D32" t="n">
-        <v>681.7903998238351</v>
+        <v>681.7903998238355</v>
       </c>
       <c r="E32" t="n">
-        <v>536.6053362341033</v>
+        <v>536.6053362341038</v>
       </c>
       <c r="F32" t="n">
-        <v>359.3795276157078</v>
+        <v>359.3795276157084</v>
       </c>
       <c r="G32" t="n">
-        <v>166.3399465209107</v>
+        <v>166.3399465209109</v>
       </c>
       <c r="H32" t="n">
-        <v>45.68656730573876</v>
+        <v>45.68656730573883</v>
       </c>
       <c r="I32" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="J32" t="n">
-        <v>179.6880028850807</v>
+        <v>179.6880028850806</v>
       </c>
       <c r="K32" t="n">
-        <v>371.4849914302928</v>
+        <v>396.3918259043627</v>
       </c>
       <c r="L32" t="n">
-        <v>641.063259083792</v>
+        <v>665.9700935578618</v>
       </c>
       <c r="M32" t="n">
-        <v>944.4883633867107</v>
+        <v>743.9269557440566</v>
       </c>
       <c r="N32" t="n">
-        <v>1202.374746171571</v>
+        <v>1041.771047561544</v>
       </c>
       <c r="O32" t="n">
-        <v>1202.374746171571</v>
+        <v>1298.672393465428</v>
       </c>
       <c r="P32" t="n">
         <v>1410.522842524674</v>
@@ -6737,13 +6737,13 @@
         <v>1465.179741534291</v>
       </c>
       <c r="W32" t="n">
-        <v>1353.916342829275</v>
+        <v>1353.916342829276</v>
       </c>
       <c r="X32" t="n">
         <v>1220.545620418261</v>
       </c>
       <c r="Y32" t="n">
-        <v>1064.444743336798</v>
+        <v>1064.444743336799</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="C33" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="D33" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="E33" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="F33" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="G33" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="H33" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="I33" t="n">
-        <v>31.63774157413063</v>
+        <v>93.60245361057567</v>
       </c>
       <c r="J33" t="n">
-        <v>31.63774157413063</v>
+        <v>93.60245361057567</v>
       </c>
       <c r="K33" t="n">
-        <v>31.63774157413063</v>
+        <v>93.60245361057567</v>
       </c>
       <c r="L33" t="n">
-        <v>31.63774157413063</v>
+        <v>93.60245361057567</v>
       </c>
       <c r="M33" t="n">
-        <v>31.63774157413063</v>
+        <v>93.60245361057567</v>
       </c>
       <c r="N33" t="n">
-        <v>31.63774157413063</v>
+        <v>93.60245361057567</v>
       </c>
       <c r="O33" t="n">
-        <v>31.63774157413063</v>
+        <v>93.60245361057567</v>
       </c>
       <c r="P33" t="n">
-        <v>93.60245361057548</v>
+        <v>93.60245361057567</v>
       </c>
       <c r="Q33" t="n">
-        <v>93.60245361057548</v>
+        <v>93.60245361057567</v>
       </c>
       <c r="R33" t="n">
-        <v>93.60245361057548</v>
+        <v>93.60245361057567</v>
       </c>
       <c r="S33" t="n">
-        <v>93.60245361057548</v>
+        <v>93.60245361057567</v>
       </c>
       <c r="T33" t="n">
-        <v>93.60245361057548</v>
+        <v>93.60245361057567</v>
       </c>
       <c r="U33" t="n">
-        <v>84.0237075103024</v>
+        <v>84.02370751030253</v>
       </c>
       <c r="V33" t="n">
-        <v>70.9901501288879</v>
+        <v>70.99015012888798</v>
       </c>
       <c r="W33" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="X33" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="Y33" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="C34" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="D34" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="E34" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="F34" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="G34" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="H34" t="n">
-        <v>92.87384870908774</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="I34" t="n">
-        <v>154.9144764135121</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="J34" t="n">
-        <v>154.9144764135121</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="K34" t="n">
-        <v>154.9144764135121</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="L34" t="n">
-        <v>154.9144764135121</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="M34" t="n">
-        <v>154.9144764135121</v>
+        <v>80.13623009777018</v>
       </c>
       <c r="N34" t="n">
-        <v>154.9144764135121</v>
+        <v>177.8893671789001</v>
       </c>
       <c r="O34" t="n">
-        <v>177.8893671788998</v>
+        <v>177.8893671789001</v>
       </c>
       <c r="P34" t="n">
-        <v>177.8893671788998</v>
+        <v>177.8893671789001</v>
       </c>
       <c r="Q34" t="n">
-        <v>177.8893671788998</v>
+        <v>177.8893671789001</v>
       </c>
       <c r="R34" t="n">
-        <v>177.8893671788998</v>
+        <v>177.8893671789001</v>
       </c>
       <c r="S34" t="n">
-        <v>169.987364060026</v>
+        <v>169.9873640600262</v>
       </c>
       <c r="T34" t="n">
-        <v>173.8999545044741</v>
+        <v>173.8999545044742</v>
       </c>
       <c r="U34" t="n">
-        <v>112.3734224409806</v>
+        <v>112.3734224409807</v>
       </c>
       <c r="V34" t="n">
-        <v>94.83471933325531</v>
+        <v>94.83471933325538</v>
       </c>
       <c r="W34" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="X34" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.63774157413063</v>
+        <v>31.63774157413065</v>
       </c>
     </row>
     <row r="35">
@@ -6911,58 +6911,58 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>814.5559850791299</v>
+        <v>814.5559850791296</v>
       </c>
       <c r="C35" t="n">
-        <v>704.9080448780342</v>
+        <v>704.9080448780335</v>
       </c>
       <c r="D35" t="n">
-        <v>607.8190316859802</v>
+        <v>607.8190316859796</v>
       </c>
       <c r="E35" t="n">
-        <v>476.6827938278566</v>
+        <v>476.6827938278561</v>
       </c>
       <c r="F35" t="n">
-        <v>313.5058109410693</v>
+        <v>313.5058109410686</v>
       </c>
       <c r="G35" t="n">
-        <v>134.5150555778804</v>
+        <v>134.5150555778796</v>
       </c>
       <c r="H35" t="n">
-        <v>27.91050209431622</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="I35" t="n">
-        <v>27.91050209431622</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="J35" t="n">
-        <v>189.7300175048155</v>
+        <v>189.7300175048154</v>
       </c>
       <c r="K35" t="n">
-        <v>195.4313062158161</v>
+        <v>420.2030946236466</v>
       </c>
       <c r="L35" t="n">
-        <v>210.8408056104595</v>
+        <v>553.7045302330235</v>
       </c>
       <c r="M35" t="n">
-        <v>528.0351640129275</v>
+        <v>870.8988886354914</v>
       </c>
       <c r="N35" t="n">
-        <v>839.6485099299638</v>
+        <v>1092.31198578768</v>
       </c>
       <c r="O35" t="n">
-        <v>947.1634441759661</v>
+        <v>1362.982585791114</v>
       </c>
       <c r="P35" t="n">
-        <v>1169.080794628618</v>
+        <v>1362.982585791114</v>
       </c>
       <c r="Q35" t="n">
-        <v>1317.717071312439</v>
+        <v>1362.982585791114</v>
       </c>
       <c r="R35" t="n">
-        <v>1362.982585791113</v>
+        <v>1362.982585791114</v>
       </c>
       <c r="S35" t="n">
-        <v>1376.601253823012</v>
+        <v>1376.601253823013</v>
       </c>
       <c r="T35" t="n">
         <v>1395.525104715811</v>
@@ -6980,7 +6980,7 @@
         <v>1090.378949353973</v>
       </c>
       <c r="Y35" t="n">
-        <v>948.3268980041191</v>
+        <v>948.3268980041189</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>27.91050209431622</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="C36" t="n">
-        <v>27.91050209431622</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="D36" t="n">
-        <v>27.91050209431622</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="E36" t="n">
-        <v>27.91050209431622</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="F36" t="n">
-        <v>27.91050209431622</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="G36" t="n">
-        <v>27.91050209431622</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="H36" t="n">
-        <v>27.91050209431622</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="I36" t="n">
-        <v>27.91050209431622</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="J36" t="n">
-        <v>27.91050209431622</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="K36" t="n">
-        <v>27.91050209431622</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="L36" t="n">
-        <v>27.91050209431622</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="M36" t="n">
-        <v>27.91050209431622</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="N36" t="n">
-        <v>53.21408491746528</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="O36" t="n">
-        <v>53.21408491746528</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="P36" t="n">
-        <v>53.21408491746528</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="Q36" t="n">
-        <v>53.21408491746528</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="R36" t="n">
-        <v>53.21408491746528</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="S36" t="n">
-        <v>53.21408491746528</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="T36" t="n">
-        <v>53.21408491746528</v>
+        <v>48.83295987079395</v>
       </c>
       <c r="U36" t="n">
-        <v>53.21408491746528</v>
+        <v>53.2140849174654</v>
       </c>
       <c r="V36" t="n">
-        <v>53.21408491746528</v>
+        <v>53.2140849174654</v>
       </c>
       <c r="W36" t="n">
-        <v>27.91050209431622</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="X36" t="n">
-        <v>27.91050209431622</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="Y36" t="n">
-        <v>27.91050209431622</v>
+        <v>27.91050209431623</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.58135077581457</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="C37" t="n">
-        <v>128.026237829835</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="D37" t="n">
-        <v>128.026237829835</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="E37" t="n">
-        <v>128.026237829835</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="F37" t="n">
-        <v>128.026237829835</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="G37" t="n">
-        <v>128.026237829835</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="H37" t="n">
-        <v>128.026237829835</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="I37" t="n">
-        <v>128.026237829835</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="J37" t="n">
-        <v>128.026237829835</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="K37" t="n">
-        <v>128.026237829835</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="L37" t="n">
-        <v>128.026237829835</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="M37" t="n">
-        <v>128.026237829835</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="N37" t="n">
-        <v>128.026237829835</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="O37" t="n">
-        <v>128.026237829835</v>
+        <v>128.0262378298354</v>
       </c>
       <c r="P37" t="n">
-        <v>128.026237829835</v>
+        <v>128.0262378298354</v>
       </c>
       <c r="Q37" t="n">
-        <v>128.026237829835</v>
+        <v>128.0262378298354</v>
       </c>
       <c r="R37" t="n">
-        <v>128.026237829835</v>
+        <v>128.0262378298354</v>
       </c>
       <c r="S37" t="n">
-        <v>128.026237829835</v>
+        <v>128.0262378298354</v>
       </c>
       <c r="T37" t="n">
-        <v>128.026237829835</v>
+        <v>128.0262378298354</v>
       </c>
       <c r="U37" t="n">
-        <v>80.54853149794974</v>
+        <v>80.54853149794997</v>
       </c>
       <c r="V37" t="n">
-        <v>77.05865412183269</v>
+        <v>77.0586541218328</v>
       </c>
       <c r="W37" t="n">
-        <v>27.91050209431622</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="X37" t="n">
-        <v>27.91050209431622</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="Y37" t="n">
-        <v>27.91050209431622</v>
+        <v>27.91050209431623</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>814.5559850791294</v>
+        <v>814.5559850791299</v>
       </c>
       <c r="C38" t="n">
-        <v>704.9080448780335</v>
+        <v>704.9080448780338</v>
       </c>
       <c r="D38" t="n">
-        <v>607.8190316859797</v>
+        <v>607.8190316859799</v>
       </c>
       <c r="E38" t="n">
-        <v>476.6827938278563</v>
+        <v>476.6827938278565</v>
       </c>
       <c r="F38" t="n">
-        <v>313.5058109410689</v>
+        <v>313.5058109410691</v>
       </c>
       <c r="G38" t="n">
-        <v>134.51505557788</v>
+        <v>134.5150555778801</v>
       </c>
       <c r="H38" t="n">
-        <v>27.91050209431625</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="I38" t="n">
-        <v>27.91050209431625</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="J38" t="n">
         <v>189.7300175048154</v>
       </c>
       <c r="K38" t="n">
-        <v>420.2030946236468</v>
+        <v>189.7300175048154</v>
       </c>
       <c r="L38" t="n">
-        <v>703.5506163766952</v>
+        <v>387.7681973893096</v>
       </c>
       <c r="M38" t="n">
-        <v>823.8090076893319</v>
+        <v>704.9625557917775</v>
       </c>
       <c r="N38" t="n">
-        <v>854.8555546575922</v>
+        <v>1016.575901708814</v>
       </c>
       <c r="O38" t="n">
-        <v>1125.526154661026</v>
+        <v>1109.418388891688</v>
       </c>
       <c r="P38" t="n">
-        <v>1347.443505113677</v>
+        <v>1331.335739344339</v>
       </c>
       <c r="Q38" t="n">
-        <v>1359.875468989356</v>
+        <v>1331.335739344339</v>
       </c>
       <c r="R38" t="n">
-        <v>1362.982585791115</v>
+        <v>1376.601253823013</v>
       </c>
       <c r="S38" t="n">
-        <v>1376.601253823014</v>
+        <v>1376.601253823013</v>
       </c>
       <c r="T38" t="n">
-        <v>1395.525104715813</v>
+        <v>1395.525104715811</v>
       </c>
       <c r="U38" t="n">
         <v>1386.941426104825</v>
       </c>
       <c r="V38" t="n">
-        <v>1306.915419006786</v>
+        <v>1306.915419006787</v>
       </c>
       <c r="W38" t="n">
-        <v>1209.700846033379</v>
+        <v>1209.70084603338</v>
       </c>
       <c r="X38" t="n">
-        <v>1090.378949353973</v>
+        <v>1090.378949353974</v>
       </c>
       <c r="Y38" t="n">
-        <v>948.3268980041186</v>
+        <v>948.3268980041194</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>27.91050209431625</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="C39" t="n">
-        <v>27.91050209431625</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="D39" t="n">
-        <v>27.91050209431625</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="E39" t="n">
-        <v>27.91050209431625</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="F39" t="n">
-        <v>27.91050209431625</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="G39" t="n">
-        <v>27.91050209431625</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="H39" t="n">
-        <v>27.91050209431625</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="I39" t="n">
-        <v>27.91050209431625</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="J39" t="n">
-        <v>27.91050209431625</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="K39" t="n">
-        <v>53.21408491746534</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="L39" t="n">
-        <v>53.21408491746534</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="M39" t="n">
-        <v>53.21408491746534</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="N39" t="n">
-        <v>53.21408491746534</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="O39" t="n">
-        <v>53.21408491746534</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="P39" t="n">
-        <v>53.21408491746534</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="Q39" t="n">
-        <v>53.21408491746534</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="R39" t="n">
-        <v>53.21408491746534</v>
+        <v>52.2190204074406</v>
       </c>
       <c r="S39" t="n">
-        <v>53.21408491746534</v>
+        <v>52.2190204074406</v>
       </c>
       <c r="T39" t="n">
-        <v>53.21408491746534</v>
+        <v>52.2190204074406</v>
       </c>
       <c r="U39" t="n">
-        <v>53.21408491746534</v>
+        <v>52.2190204074406</v>
       </c>
       <c r="V39" t="n">
-        <v>53.21408491746534</v>
+        <v>53.21408491746537</v>
       </c>
       <c r="W39" t="n">
-        <v>27.91050209431625</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="X39" t="n">
-        <v>27.91050209431625</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="Y39" t="n">
-        <v>27.91050209431625</v>
+        <v>27.91050209431623</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.04812141366483</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="C40" t="n">
-        <v>29.04812141366483</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="D40" t="n">
-        <v>29.04812141366483</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="E40" t="n">
-        <v>128.0262378298351</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="F40" t="n">
-        <v>128.0262378298351</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="G40" t="n">
-        <v>128.0262378298351</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="H40" t="n">
-        <v>128.0262378298351</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="I40" t="n">
-        <v>128.0262378298351</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="J40" t="n">
-        <v>128.0262378298351</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="K40" t="n">
-        <v>128.0262378298351</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="L40" t="n">
-        <v>128.0262378298351</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="M40" t="n">
-        <v>128.0262378298351</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="N40" t="n">
-        <v>128.0262378298351</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="O40" t="n">
-        <v>128.0262378298351</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="P40" t="n">
-        <v>128.0262378298351</v>
+        <v>39.59195297310558</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.0262378298351</v>
+        <v>110.3443932858381</v>
       </c>
       <c r="R40" t="n">
-        <v>128.0262378298351</v>
+        <v>110.3443932858381</v>
       </c>
       <c r="S40" t="n">
-        <v>128.0262378298351</v>
+        <v>110.3443932858381</v>
       </c>
       <c r="T40" t="n">
-        <v>128.0262378298351</v>
+        <v>128.0262378298353</v>
       </c>
       <c r="U40" t="n">
-        <v>80.54853149794982</v>
+        <v>80.54853149794991</v>
       </c>
       <c r="V40" t="n">
-        <v>77.05865412183275</v>
+        <v>77.05865412183277</v>
       </c>
       <c r="W40" t="n">
-        <v>27.91050209431625</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="X40" t="n">
-        <v>27.91050209431625</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.04812141366483</v>
+        <v>27.91050209431623</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>814.5559850791309</v>
+        <v>814.5559850791294</v>
       </c>
       <c r="C41" t="n">
-        <v>704.9080448780348</v>
+        <v>704.9080448780334</v>
       </c>
       <c r="D41" t="n">
-        <v>607.8190316859811</v>
+        <v>607.8190316859796</v>
       </c>
       <c r="E41" t="n">
-        <v>476.6827938278577</v>
+        <v>476.6827938278561</v>
       </c>
       <c r="F41" t="n">
-        <v>313.5058109410704</v>
+        <v>313.5058109410685</v>
       </c>
       <c r="G41" t="n">
-        <v>134.5150555778802</v>
+        <v>134.5150555778801</v>
       </c>
       <c r="H41" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="I41" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="J41" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="K41" t="n">
-        <v>258.3835792131475</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="L41" t="n">
-        <v>258.3835792131475</v>
+        <v>311.2580238473644</v>
       </c>
       <c r="M41" t="n">
-        <v>575.5779376156154</v>
+        <v>389.2148860335593</v>
       </c>
       <c r="N41" t="n">
-        <v>826.3158250125769</v>
+        <v>700.8282319505955</v>
       </c>
       <c r="O41" t="n">
-        <v>1096.98642501601</v>
+        <v>971.4988319540289</v>
       </c>
       <c r="P41" t="n">
-        <v>1318.903775468662</v>
+        <v>1193.41618240668</v>
       </c>
       <c r="Q41" t="n">
-        <v>1331.335739344341</v>
+        <v>1317.71707131244</v>
       </c>
       <c r="R41" t="n">
-        <v>1376.601253823015</v>
+        <v>1362.982585791114</v>
       </c>
       <c r="S41" t="n">
-        <v>1376.601253823015</v>
+        <v>1376.601253823013</v>
       </c>
       <c r="T41" t="n">
-        <v>1395.525104715813</v>
+        <v>1395.525104715811</v>
       </c>
       <c r="U41" t="n">
-        <v>1386.941426104827</v>
+        <v>1386.941426104826</v>
       </c>
       <c r="V41" t="n">
-        <v>1306.915419006788</v>
+        <v>1306.915419006787</v>
       </c>
       <c r="W41" t="n">
-        <v>1209.700846033381</v>
+        <v>1209.70084603338</v>
       </c>
       <c r="X41" t="n">
-        <v>1090.378949353975</v>
+        <v>1090.378949353973</v>
       </c>
       <c r="Y41" t="n">
-        <v>948.3268980041203</v>
+        <v>948.3268980041188</v>
       </c>
     </row>
     <row r="42">
@@ -7464,46 +7464,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="C42" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="D42" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="E42" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="F42" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="G42" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="H42" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="I42" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="J42" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="K42" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="L42" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="M42" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="N42" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="O42" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="P42" t="n">
         <v>53.21408491746543</v>
@@ -7527,13 +7527,13 @@
         <v>53.21408491746543</v>
       </c>
       <c r="W42" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="X42" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="Y42" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="C43" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="D43" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="E43" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="F43" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="G43" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="H43" t="n">
-        <v>102.9158633288225</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="I43" t="n">
-        <v>102.9158633288225</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="J43" t="n">
-        <v>102.9158633288225</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="K43" t="n">
-        <v>102.9158633288225</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="L43" t="n">
-        <v>128.0262378298354</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="M43" t="n">
-        <v>128.0262378298354</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="N43" t="n">
-        <v>128.0262378298354</v>
+        <v>128.0262378298355</v>
       </c>
       <c r="O43" t="n">
-        <v>128.0262378298354</v>
+        <v>128.0262378298355</v>
       </c>
       <c r="P43" t="n">
-        <v>128.0262378298354</v>
+        <v>128.0262378298355</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.0262378298354</v>
+        <v>128.0262378298355</v>
       </c>
       <c r="R43" t="n">
-        <v>128.0262378298354</v>
+        <v>128.0262378298355</v>
       </c>
       <c r="S43" t="n">
-        <v>128.0262378298354</v>
+        <v>128.0262378298355</v>
       </c>
       <c r="T43" t="n">
-        <v>128.0262378298354</v>
+        <v>128.0262378298355</v>
       </c>
       <c r="U43" t="n">
-        <v>80.54853149794999</v>
+        <v>80.54853149795004</v>
       </c>
       <c r="V43" t="n">
-        <v>77.05865412183283</v>
+        <v>77.05865412183284</v>
       </c>
       <c r="W43" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="X43" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="Y43" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>814.5559850791304</v>
+        <v>814.5559850791292</v>
       </c>
       <c r="C44" t="n">
-        <v>704.9080448780346</v>
+        <v>704.9080448780335</v>
       </c>
       <c r="D44" t="n">
-        <v>607.8190316859805</v>
+        <v>607.8190316859796</v>
       </c>
       <c r="E44" t="n">
-        <v>476.6827938278565</v>
+        <v>476.6827938278561</v>
       </c>
       <c r="F44" t="n">
-        <v>313.5058109410691</v>
+        <v>313.5058109410686</v>
       </c>
       <c r="G44" t="n">
-        <v>134.5150555778802</v>
+        <v>134.5150555778803</v>
       </c>
       <c r="H44" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="I44" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="J44" t="n">
-        <v>189.7300175048154</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="K44" t="n">
-        <v>420.2030946236466</v>
+        <v>258.3835792131475</v>
       </c>
       <c r="L44" t="n">
-        <v>553.2002769325626</v>
+        <v>459.3967376061353</v>
       </c>
       <c r="M44" t="n">
-        <v>870.3946353350304</v>
+        <v>537.3535997923302</v>
       </c>
       <c r="N44" t="n">
-        <v>870.3946353350304</v>
+        <v>848.9669457093664</v>
       </c>
       <c r="O44" t="n">
-        <v>1141.065235338464</v>
+        <v>1119.6375457128</v>
       </c>
       <c r="P44" t="n">
-        <v>1362.982585791116</v>
+        <v>1188.004645521417</v>
       </c>
       <c r="Q44" t="n">
-        <v>1362.982585791116</v>
+        <v>1336.640922205238</v>
       </c>
       <c r="R44" t="n">
-        <v>1362.982585791116</v>
+        <v>1381.906436683912</v>
       </c>
       <c r="S44" t="n">
-        <v>1376.601253823015</v>
+        <v>1395.525104715811</v>
       </c>
       <c r="T44" t="n">
-        <v>1395.525104715813</v>
+        <v>1395.525104715811</v>
       </c>
       <c r="U44" t="n">
-        <v>1386.941426104826</v>
+        <v>1386.941426104825</v>
       </c>
       <c r="V44" t="n">
         <v>1306.915419006787</v>
       </c>
       <c r="W44" t="n">
-        <v>1209.700846033381</v>
+        <v>1209.70084603338</v>
       </c>
       <c r="X44" t="n">
-        <v>1090.378949353974</v>
+        <v>1090.378949353973</v>
       </c>
       <c r="Y44" t="n">
-        <v>948.3268980041198</v>
+        <v>948.3268980041186</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="C45" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="D45" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="E45" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="F45" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="G45" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="H45" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="I45" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="J45" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="K45" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="L45" t="n">
-        <v>27.91050209431626</v>
+        <v>53.21408491746543</v>
       </c>
       <c r="M45" t="n">
         <v>53.21408491746543</v>
@@ -7764,13 +7764,13 @@
         <v>53.21408491746543</v>
       </c>
       <c r="W45" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="X45" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="Y45" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="C46" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="D46" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="E46" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="F46" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="G46" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="H46" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="I46" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="J46" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="K46" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="L46" t="n">
-        <v>27.91050209431626</v>
+        <v>128.0262378298355</v>
       </c>
       <c r="M46" t="n">
-        <v>27.91050209431626</v>
+        <v>128.0262378298355</v>
       </c>
       <c r="N46" t="n">
-        <v>128.0262378298354</v>
+        <v>128.0262378298355</v>
       </c>
       <c r="O46" t="n">
-        <v>128.0262378298354</v>
+        <v>128.0262378298355</v>
       </c>
       <c r="P46" t="n">
-        <v>128.0262378298354</v>
+        <v>128.0262378298355</v>
       </c>
       <c r="Q46" t="n">
-        <v>128.0262378298354</v>
+        <v>128.0262378298355</v>
       </c>
       <c r="R46" t="n">
-        <v>128.0262378298354</v>
+        <v>128.0262378298355</v>
       </c>
       <c r="S46" t="n">
-        <v>128.0262378298354</v>
+        <v>128.0262378298355</v>
       </c>
       <c r="T46" t="n">
-        <v>128.0262378298354</v>
+        <v>128.0262378298355</v>
       </c>
       <c r="U46" t="n">
-        <v>80.54853149794999</v>
+        <v>80.54853149795004</v>
       </c>
       <c r="V46" t="n">
-        <v>77.05865412183283</v>
+        <v>77.05865412183284</v>
       </c>
       <c r="W46" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="X46" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
       <c r="Y46" t="n">
-        <v>27.91050209431626</v>
+        <v>27.91050209431623</v>
       </c>
     </row>
   </sheetData>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>9.119731962185774</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8435368995228245</v>
+        <v>226.0888856784138</v>
       </c>
       <c r="M11" t="n">
-        <v>212.5404644647748</v>
+        <v>259.1309579624549</v>
       </c>
       <c r="N11" t="n">
-        <v>125.3552582729593</v>
+        <v>219.3417105013123</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>36.3530522910274</v>
       </c>
       <c r="P11" t="n">
-        <v>47.36580434484073</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q11" t="n">
-        <v>137.5801139476182</v>
+        <v>3.851148534840142</v>
       </c>
       <c r="R11" t="n">
         <v>42.58424007769262</v>
@@ -8766,25 +8766,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>81.70699090058493</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>134.4705200961129</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>123.7278653163661</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>120.530664604109</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>105.9646447700223</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>140.0399610187686</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>170.1919719708861</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8863,10 +8863,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>6.125898181063409</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>9.119731962185774</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8933,19 +8933,19 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>212.5404644647748</v>
       </c>
       <c r="N14" t="n">
-        <v>31.63903284809508</v>
+        <v>25.44532796427093</v>
       </c>
       <c r="O14" t="n">
-        <v>16.31119812444338</v>
+        <v>36.3530522910274</v>
       </c>
       <c r="P14" t="n">
-        <v>0.7753108471606112</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.851148534840171</v>
+        <v>64.40876805603534</v>
       </c>
       <c r="R14" t="n">
         <v>42.58424007769262</v>
@@ -9003,31 +9003,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>81.70699090058493</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>134.4705200961129</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>123.7278653163661</v>
       </c>
       <c r="M15" t="n">
-        <v>120.530664604109</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>105.9646447700223</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>124.3189179316643</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>123.601478473206</v>
       </c>
       <c r="Q15" t="n">
-        <v>60.25222452516267</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.49804203773589</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9082,25 +9082,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>105.2836065989273</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>111.3378805152112</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>105.6509998050918</v>
       </c>
       <c r="P16" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>81.70699090058493</v>
+        <v>55.27562695655561</v>
       </c>
       <c r="K27" t="n">
         <v>134.4705200961129</v>
@@ -9960,19 +9960,19 @@
         <v>123.7278653163661</v>
       </c>
       <c r="M27" t="n">
-        <v>86.40904764482906</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>105.9646447700223</v>
+        <v>176.2086156942271</v>
       </c>
       <c r="O27" t="n">
-        <v>194.5628888558691</v>
+        <v>124.3189179316643</v>
       </c>
       <c r="P27" t="n">
         <v>123.601478473206</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10030,13 +10030,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K28" t="n">
         <v>69.16996059133484</v>
       </c>
       <c r="L28" t="n">
-        <v>105.2836065989273</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>115.6742602693208</v>
@@ -10051,7 +10051,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10185,31 +10185,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>171.373473584151</v>
+        <v>134.470520096113</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>123.7278653163663</v>
       </c>
       <c r="M30" t="n">
-        <v>120.530664604109</v>
+        <v>190.774635528314</v>
       </c>
       <c r="N30" t="n">
-        <v>105.9646447700223</v>
+        <v>105.9646447700226</v>
       </c>
       <c r="O30" t="n">
-        <v>137.5476683600722</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>123.6014784732059</v>
+        <v>123.6014784732061</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.1300824528302</v>
+        <v>109.0680878782927</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10276,13 +10276,13 @@
         <v>105.2836065989273</v>
       </c>
       <c r="M31" t="n">
-        <v>115.6742602693208</v>
+        <v>78.70633246936129</v>
       </c>
       <c r="N31" t="n">
         <v>111.3378805152112</v>
       </c>
       <c r="O31" t="n">
-        <v>105.6509998050918</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>87.48425302749862</v>
@@ -10358,10 +10358,10 @@
         <v>291.2847697033555</v>
       </c>
       <c r="N32" t="n">
-        <v>243.0394847637875</v>
+        <v>283.4008070189657</v>
       </c>
       <c r="O32" t="n">
-        <v>215.0079075722383</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P32" t="n">
         <v>208.5255628951208</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>6.561484152283033</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>81.70699090058493</v>
@@ -10440,16 +10440,16 @@
         <v>105.9646447700223</v>
       </c>
       <c r="O33" t="n">
-        <v>124.3189179316643</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>186.1920966918371</v>
+        <v>123.601478473206</v>
       </c>
       <c r="Q33" t="n">
         <v>136.1300824528302</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10507,22 +10507,22 @@
         <v>21.79628437712472</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>28.3786200073843</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>115.6742602693208</v>
       </c>
       <c r="N34" t="n">
-        <v>111.3378805152112</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>105.6509998050918</v>
       </c>
       <c r="P34" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10589,16 +10589,16 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M35" t="n">
         <v>291.2847697033555</v>
       </c>
       <c r="N35" t="n">
-        <v>283.4008070189657</v>
+        <v>192.2894446302312</v>
       </c>
       <c r="O35" t="n">
-        <v>81.95481467297486</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P35" t="n">
         <v>208.5255628951208</v>
@@ -10659,31 +10659,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>134.4705200961129</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>120.530664604109</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>131.5238193388598</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>124.3189179316643</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>123.601478473206</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.1300824528302</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10741,13 +10741,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L37" t="n">
-        <v>105.2836065989273</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>115.6742602693208</v>
@@ -10756,7 +10756,7 @@
         <v>111.3378805152112</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>3.662402816030934</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10826,13 +10826,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L38" t="n">
-        <v>270.6444670286918</v>
+        <v>184.4734146362131</v>
       </c>
       <c r="M38" t="n">
-        <v>272.4737631983509</v>
+        <v>291.2847697033555</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>283.4008070189657</v>
       </c>
       <c r="O38" t="n">
         <v>246.758517458259</v>
@@ -10841,10 +10841,10 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,25 +10902,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>160.0296946649503</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>123.7278653163661</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>120.530664604109</v>
       </c>
       <c r="N39" t="n">
-        <v>105.9646447700223</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>124.3189179316643</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>123.601478473206</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.1300824528302</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M40" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>111.3378805152112</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11060,16 +11060,16 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K41" t="n">
-        <v>210.0462273461148</v>
+        <v>30.78431158856886</v>
       </c>
       <c r="L41" t="n">
-        <v>226.0888856784138</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M41" t="n">
         <v>291.2847697033555</v>
       </c>
       <c r="N41" t="n">
-        <v>221.9104448774761</v>
+        <v>283.4008070189657</v>
       </c>
       <c r="O41" t="n">
         <v>246.758517458259</v>
@@ -11078,7 +11078,7 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R41" t="n">
         <v>42.58424007769262</v>
@@ -11133,31 +11133,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>6.561484152283033</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>123.7278653163661</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>120.530664604109</v>
       </c>
       <c r="N42" t="n">
-        <v>105.9646447700223</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>124.3189179316643</v>
       </c>
       <c r="P42" t="n">
-        <v>149.1606530420435</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.30295037104499</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11224,13 +11224,13 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P43" t="n">
         <v>87.48425302749862</v>
@@ -11306,13 +11306,13 @@
         <v>291.2847697033555</v>
       </c>
       <c r="N44" t="n">
-        <v>98.45044908378541</v>
+        <v>283.4008070189657</v>
       </c>
       <c r="O44" t="n">
         <v>246.758517458259</v>
       </c>
       <c r="P44" t="n">
-        <v>208.5255628951208</v>
+        <v>53.42429961831829</v>
       </c>
       <c r="Q44" t="n">
         <v>137.5801139476182</v>
@@ -11370,19 +11370,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>134.4705200961129</v>
       </c>
       <c r="L45" t="n">
-        <v>123.7278653163661</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>146.0898391729466</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>123.601478473206</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R45" t="n">
-        <v>29.49804203773589</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11461,7 +11461,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -11470,10 +11470,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>124.9601486022878</v>
       </c>
       <c r="D11" t="n">
-        <v>65.93631736565615</v>
+        <v>112.5268108633363</v>
       </c>
       <c r="E11" t="n">
         <v>146.2335632827452</v>
@@ -23270,13 +23270,13 @@
         <v>177.9539008611225</v>
       </c>
       <c r="G11" t="n">
-        <v>193.60953561276</v>
+        <v>147.0190421150799</v>
       </c>
       <c r="H11" t="n">
-        <v>75.35670225425103</v>
+        <v>105.8168187072534</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>16.40868780320294</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,10 +23315,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>95.63443483026103</v>
+        <v>49.04394133258087</v>
       </c>
       <c r="W11" t="n">
-        <v>66.33893230772107</v>
+        <v>66.06062154919576</v>
       </c>
       <c r="X11" t="n">
         <v>134.5373655158151</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>148.8418915989424</v>
+        <v>148.8418915989423</v>
       </c>
       <c r="C14" t="n">
-        <v>78.36965510460772</v>
+        <v>78.36965510460769</v>
       </c>
       <c r="D14" t="n">
         <v>112.5268108633363</v>
@@ -23507,13 +23507,13 @@
         <v>177.9539008611225</v>
       </c>
       <c r="G14" t="n">
-        <v>147.0190421150799</v>
+        <v>152.5726289400033</v>
       </c>
       <c r="H14" t="n">
-        <v>75.35670225425106</v>
+        <v>121.9471957519312</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>16.40868780320295</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>24.90652962807899</v>
+        <v>24.90652962807896</v>
       </c>
       <c r="V14" t="n">
-        <v>95.63443483026106</v>
+        <v>95.63443483026103</v>
       </c>
       <c r="W14" t="n">
-        <v>112.6511150468759</v>
+        <v>66.06062154919574</v>
       </c>
       <c r="X14" t="n">
-        <v>134.5373655158152</v>
+        <v>87.94687201813498</v>
       </c>
       <c r="Y14" t="n">
-        <v>132.4119997700051</v>
+        <v>157.0402186395589</v>
       </c>
     </row>
     <row r="15">
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>16.82112357408936</v>
+        <v>16.82112357408933</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>18.47486481276422</v>
+        <v>18.4748648127642</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23729,10 +23729,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>23.31396891162127</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>12.30903355541193</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23741,10 +23741,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>65.30278581424659</v>
+        <v>31.91861757777271</v>
       </c>
       <c r="G17" t="n">
-        <v>34.36792706820399</v>
+        <v>34.36792706820397</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>44.389103592683</v>
       </c>
     </row>
     <row r="18">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>27.02593346837628</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23975,16 +23975,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>33.58244823586926</v>
+        <v>14.0178882065658</v>
       </c>
       <c r="F20" t="n">
         <v>18.71229231656645</v>
       </c>
       <c r="G20" t="n">
-        <v>34.36792706820398</v>
+        <v>80.95842056588413</v>
       </c>
       <c r="H20" t="n">
-        <v>9.296080705055278</v>
+        <v>9.296080705055301</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>32.50455427584174</v>
+        <v>32.50455427583924</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24686,19 +24686,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>16.09586647263864</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>16.09586647263768</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>16.40868780320293</v>
+        <v>16.40868780320298</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>-1.215028078149771e-12</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>648042.2618639035</v>
+        <v>648042.2618639034</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>648042.2618639034</v>
+        <v>648042.2618639033</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>798718.8565099287</v>
+        <v>798718.8565099288</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>798718.8565099286</v>
+        <v>798718.8565099291</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>798061.8673581246</v>
+        <v>798061.8673581248</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>774460.4409685116</v>
+        <v>774460.4409685115</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>859883.6952970484</v>
+        <v>859883.6952970483</v>
       </c>
       <c r="C2" t="n">
-        <v>859883.6952970484</v>
+        <v>859883.6952970482</v>
       </c>
       <c r="D2" t="n">
-        <v>859883.6952970483</v>
+        <v>859883.6952970482</v>
       </c>
       <c r="E2" t="n">
         <v>753197.8169351126</v>
       </c>
       <c r="F2" t="n">
-        <v>753197.8169351122</v>
+        <v>753197.8169351124</v>
       </c>
       <c r="G2" t="n">
-        <v>852080.7439830347</v>
+        <v>852080.7439830353</v>
       </c>
       <c r="H2" t="n">
-        <v>852080.7439830351</v>
+        <v>852080.7439830352</v>
       </c>
       <c r="I2" t="n">
-        <v>861345.6640795541</v>
+        <v>861345.6640795544</v>
       </c>
       <c r="J2" t="n">
-        <v>859102.9066797247</v>
+        <v>859102.906679725</v>
       </c>
       <c r="K2" t="n">
-        <v>859102.9066797243</v>
+        <v>859102.9066797252</v>
       </c>
       <c r="L2" t="n">
-        <v>861625.5851370728</v>
+        <v>861625.5851370724</v>
       </c>
       <c r="M2" t="n">
+        <v>861625.5851370725</v>
+      </c>
+      <c r="N2" t="n">
+        <v>861625.5851370723</v>
+      </c>
+      <c r="O2" t="n">
         <v>861625.5851370724</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>861625.5851370724</v>
-      </c>
-      <c r="O2" t="n">
-        <v>861625.5851370726</v>
-      </c>
-      <c r="P2" t="n">
-        <v>861625.5851370725</v>
       </c>
     </row>
     <row r="3">
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>90120.89203750074</v>
+        <v>90120.89203750071</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>8180.038889703394</v>
+        <v>8180.038889703391</v>
       </c>
       <c r="J3" t="n">
-        <v>173309.6062092147</v>
+        <v>173309.6062092148</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>92121.17230062948</v>
+        <v>92121.17230062938</v>
       </c>
       <c r="M3" t="n">
-        <v>11126.6699794337</v>
+        <v>11126.66997943365</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>90075.386985612</v>
+        <v>90075.38698561204</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,16 +26433,16 @@
         <v>465166.9240602864</v>
       </c>
       <c r="H4" t="n">
-        <v>465166.9240602863</v>
+        <v>465166.9240602864</v>
       </c>
       <c r="I4" t="n">
         <v>470715.2942988104</v>
       </c>
       <c r="J4" t="n">
-        <v>476426.5367264014</v>
+        <v>476426.5367264015</v>
       </c>
       <c r="K4" t="n">
-        <v>476426.5367264014</v>
+        <v>476426.5367264016</v>
       </c>
       <c r="L4" t="n">
         <v>477763.6790865451</v>
@@ -26451,13 +26451,13 @@
         <v>476389.0142111192</v>
       </c>
       <c r="N4" t="n">
-        <v>476389.0142111193</v>
+        <v>476389.0142111192</v>
       </c>
       <c r="O4" t="n">
-        <v>476389.0142111193</v>
+        <v>476389.0142111192</v>
       </c>
       <c r="P4" t="n">
-        <v>476389.0142111193</v>
+        <v>476389.0142111192</v>
       </c>
     </row>
     <row r="5">
@@ -26482,16 +26482,16 @@
         <v>23883.76750238167</v>
       </c>
       <c r="G5" t="n">
-        <v>33354.23409325748</v>
+        <v>33354.23409325749</v>
       </c>
       <c r="H5" t="n">
-        <v>33354.23409325748</v>
+        <v>33354.23409325749</v>
       </c>
       <c r="I5" t="n">
         <v>35224.51272673873</v>
       </c>
       <c r="J5" t="n">
-        <v>45095.749094062</v>
+        <v>45095.74909406201</v>
       </c>
       <c r="K5" t="n">
         <v>45095.749094062</v>
@@ -26503,13 +26503,13 @@
         <v>43642.50906433052</v>
       </c>
       <c r="N5" t="n">
-        <v>43642.50906433054</v>
+        <v>43642.50906433052</v>
       </c>
       <c r="O5" t="n">
-        <v>43642.50906433054</v>
+        <v>43642.50906433052</v>
       </c>
       <c r="P5" t="n">
-        <v>43642.50906433054</v>
+        <v>43642.50906433052</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>322878.3495601686</v>
+        <v>322873.8831759633</v>
       </c>
       <c r="C6" t="n">
-        <v>322878.3495601686</v>
+        <v>322873.8831759632</v>
       </c>
       <c r="D6" t="n">
-        <v>322878.3495601685</v>
+        <v>322873.8831759632</v>
       </c>
       <c r="E6" t="n">
-        <v>47500.52930781359</v>
+        <v>47222.50938934708</v>
       </c>
       <c r="F6" t="n">
-        <v>319549.377645683</v>
+        <v>319271.3577272165</v>
       </c>
       <c r="G6" t="n">
-        <v>263438.6937919902</v>
+        <v>263414.2198403137</v>
       </c>
       <c r="H6" t="n">
-        <v>353559.5858294913</v>
+        <v>353535.1118778143</v>
       </c>
       <c r="I6" t="n">
-        <v>347225.8181643017</v>
+        <v>347225.1004180006</v>
       </c>
       <c r="J6" t="n">
-        <v>164271.0146500467</v>
+        <v>164264.5462437459</v>
       </c>
       <c r="K6" t="n">
-        <v>337580.620859261</v>
+        <v>337574.1524529607</v>
       </c>
       <c r="L6" t="n">
-        <v>246434.7827040351</v>
+        <v>246434.7827040346</v>
       </c>
       <c r="M6" t="n">
-        <v>330467.391882189</v>
+        <v>330467.3918821891</v>
       </c>
       <c r="N6" t="n">
         <v>341594.0618616225</v>
       </c>
       <c r="O6" t="n">
-        <v>251518.6748760108</v>
+        <v>251518.6748760107</v>
       </c>
       <c r="P6" t="n">
         <v>341594.0618616227</v>
@@ -26713,13 +26713,13 @@
         <v>225.245348778891</v>
       </c>
       <c r="L2" t="n">
-        <v>227.7456991078019</v>
+        <v>227.7456991078018</v>
       </c>
       <c r="M2" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="N2" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="O2" t="n">
         <v>241.6540365820939</v>
@@ -26762,7 +26762,7 @@
         <v>97.01441611147402</v>
       </c>
       <c r="K3" t="n">
-        <v>97.01441611147411</v>
+        <v>97.01441611147358</v>
       </c>
       <c r="L3" t="n">
         <v>97.01441611147402</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>46.59049349768014</v>
+        <v>46.59049349768016</v>
       </c>
       <c r="F4" t="n">
-        <v>46.59049349768014</v>
+        <v>46.59049349768016</v>
       </c>
       <c r="G4" t="n">
-        <v>46.59049349768014</v>
+        <v>46.59049349768016</v>
       </c>
       <c r="H4" t="n">
-        <v>46.59049349768014</v>
+        <v>46.59049349768016</v>
       </c>
       <c r="I4" t="n">
-        <v>77.35165523256904</v>
+        <v>77.35165523256906</v>
       </c>
       <c r="J4" t="n">
-        <v>395.4717696766329</v>
+        <v>395.4717696766331</v>
       </c>
       <c r="K4" t="n">
-        <v>395.4717696766329</v>
+        <v>395.4717696766331</v>
       </c>
       <c r="L4" t="n">
-        <v>395.4717696766329</v>
+        <v>395.4717696766331</v>
       </c>
       <c r="M4" t="n">
-        <v>348.8812761789527</v>
+        <v>348.8812761789528</v>
       </c>
       <c r="N4" t="n">
-        <v>348.8812761789532</v>
+        <v>348.8812761789528</v>
       </c>
       <c r="O4" t="n">
-        <v>348.8812761789532</v>
+        <v>348.8812761789528</v>
       </c>
       <c r="P4" t="n">
-        <v>348.8812761789532</v>
+        <v>348.8812761789528</v>
       </c>
     </row>
   </sheetData>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>115.1514653757868</v>
+        <v>115.1514653757867</v>
       </c>
       <c r="M2" t="n">
-        <v>13.90833747429213</v>
+        <v>13.90833747429207</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>112.594233732015</v>
+        <v>112.5942337320151</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>46.59049349768014</v>
+        <v>46.59049349768016</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>30.76116173488891</v>
+        <v>30.7611617348889</v>
       </c>
       <c r="J4" t="n">
-        <v>318.1201144440639</v>
+        <v>318.120114444064</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>46.59049349768014</v>
+        <v>46.59049349768016</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28111,28 +28111,28 @@
         <v>225.245348778891</v>
       </c>
       <c r="J11" t="n">
-        <v>203.1685824649048</v>
+        <v>225.245348778891</v>
       </c>
       <c r="K11" t="n">
-        <v>218.8991759293892</v>
+        <v>225.245348778891</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>225.245348778891</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>131.5291233540268</v>
-      </c>
-      <c r="O11" t="n">
-        <v>215.0079075722383</v>
-      </c>
       <c r="P11" t="n">
+        <v>17.4950967309308</v>
+      </c>
+      <c r="Q11" t="n">
         <v>225.245348778891</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>138.106876863793</v>
       </c>
       <c r="R11" t="n">
         <v>225.245348778891</v>
@@ -28178,7 +28178,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>205.4139326176085</v>
       </c>
       <c r="G12" t="n">
         <v>148.7535458774181</v>
@@ -28190,31 +28190,31 @@
         <v>114.2327454257069</v>
       </c>
       <c r="J12" t="n">
-        <v>53.31993686428369</v>
+        <v>135.0269277648686</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>134.4705200961129</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>123.7278653163661</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>120.530664604109</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>105.9646447700223</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>124.3189179316643</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>123.601478473206</v>
       </c>
       <c r="Q12" t="n">
         <v>144.1409005499619</v>
       </c>
       <c r="R12" t="n">
-        <v>164.7729941334509</v>
+        <v>188.4264715599755</v>
       </c>
       <c r="S12" t="n">
         <v>191.7568739551844</v>
@@ -28232,7 +28232,7 @@
         <v>225.245348778891</v>
       </c>
       <c r="X12" t="n">
-        <v>225.245348778891</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y12" t="n">
         <v>223.3842861340256</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>224.2074141626482</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
         <v>166.4571809719723</v>
@@ -28254,28 +28254,28 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>188.2666347099051</v>
       </c>
       <c r="F13" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>198.0742473980344</v>
+        <v>168.7082710988915</v>
       </c>
       <c r="H13" t="n">
-        <v>212.4815389338082</v>
+        <v>165.8910454361281</v>
       </c>
       <c r="I13" t="n">
         <v>165.0783983962621</v>
       </c>
       <c r="J13" t="n">
-        <v>142.5658713019824</v>
+        <v>175.2577409717737</v>
       </c>
       <c r="K13" t="n">
         <v>137.0708595925673</v>
       </c>
       <c r="L13" t="n">
-        <v>138.5498991436509</v>
+        <v>185.1403926413311</v>
       </c>
       <c r="M13" t="n">
         <v>142.0661846618135</v>
@@ -28287,10 +28287,10 @@
         <v>144.1894336046712</v>
       </c>
       <c r="P13" t="n">
-        <v>146.869479826074</v>
+        <v>59.38522679857539</v>
       </c>
       <c r="Q13" t="n">
-        <v>170.1869251550914</v>
+        <v>164.061026974028</v>
       </c>
       <c r="R13" t="n">
         <v>203.7670162958267</v>
@@ -28311,7 +28311,7 @@
         <v>225.245348778891</v>
       </c>
       <c r="X13" t="n">
-        <v>225.245348778891</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y13" t="n">
         <v>217.1412728141684</v>
@@ -28351,13 +28351,13 @@
         <v>225.245348778891</v>
       </c>
       <c r="K14" t="n">
-        <v>218.8991759293892</v>
+        <v>225.245348778891</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>212.5404644647748</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>225.245348778891</v>
@@ -28366,13 +28366,13 @@
         <v>225.245348778891</v>
       </c>
       <c r="P14" t="n">
-        <v>225.245348778891</v>
+        <v>17.4950967309308</v>
       </c>
       <c r="Q14" t="n">
-        <v>225.245348778891</v>
+        <v>164.6877292576958</v>
       </c>
       <c r="R14" t="n">
-        <v>225.245348778891</v>
+        <v>195.9312946844435</v>
       </c>
       <c r="S14" t="n">
         <v>225.245348778891</v>
@@ -28409,7 +28409,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>205.7628085742587</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
@@ -28418,40 +28418,40 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>164.4745889645225</v>
+        <v>148.7535458774181</v>
       </c>
       <c r="H15" t="n">
-        <v>172.4123732104121</v>
+        <v>125.821879712732</v>
       </c>
       <c r="I15" t="n">
         <v>114.2327454257069</v>
       </c>
       <c r="J15" t="n">
-        <v>53.31993686428369</v>
+        <v>135.0269277648686</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>134.4705200961129</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>120.530664604109</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>105.9646447700223</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>147.972395358189</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>83.88867602479925</v>
+        <v>144.1409005499619</v>
       </c>
       <c r="R15" t="n">
-        <v>135.274952095715</v>
+        <v>164.7729941334509</v>
       </c>
       <c r="S15" t="n">
         <v>191.7568739551844</v>
@@ -28469,7 +28469,7 @@
         <v>225.245348778891</v>
       </c>
       <c r="X15" t="n">
-        <v>225.245348778891</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y15" t="n">
         <v>223.3842861340256</v>
@@ -28485,7 +28485,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>213.0476744696525</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
         <v>145.1826502507107</v>
@@ -28497,37 +28497,37 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.7082710988915</v>
+        <v>215.2987645965716</v>
       </c>
       <c r="H16" t="n">
-        <v>198.5829151059195</v>
+        <v>165.8910454361281</v>
       </c>
       <c r="I16" t="n">
         <v>165.0783983962621</v>
       </c>
       <c r="J16" t="n">
-        <v>120.7695869248576</v>
+        <v>142.5658713019824</v>
       </c>
       <c r="K16" t="n">
-        <v>67.90089900123245</v>
+        <v>137.0708595925673</v>
       </c>
       <c r="L16" t="n">
-        <v>33.26629254472368</v>
+        <v>171.2417688134423</v>
       </c>
       <c r="M16" t="n">
-        <v>26.39192439249268</v>
+        <v>142.0661846618135</v>
       </c>
       <c r="N16" t="n">
-        <v>17.66727608639878</v>
+        <v>129.00515660161</v>
       </c>
       <c r="O16" t="n">
         <v>38.53843379957932</v>
       </c>
       <c r="P16" t="n">
-        <v>59.38522679857539</v>
+        <v>193.4599733237542</v>
       </c>
       <c r="Q16" t="n">
-        <v>216.7774186527715</v>
+        <v>170.1869251550914</v>
       </c>
       <c r="R16" t="n">
         <v>203.7670162958267</v>
@@ -28585,10 +28585,10 @@
         <v>241.6540365820939</v>
       </c>
       <c r="J17" t="n">
-        <v>187.7745872433966</v>
+        <v>215.4659563427375</v>
       </c>
       <c r="K17" t="n">
-        <v>218.8991759293892</v>
+        <v>265.4896694270693</v>
       </c>
       <c r="L17" t="n">
         <v>226.0888856784138</v>
@@ -28597,31 +28597,31 @@
         <v>212.5404644647748</v>
       </c>
       <c r="N17" t="n">
-        <v>256.8843816269861</v>
+        <v>210.2938881293059</v>
       </c>
       <c r="O17" t="n">
         <v>215.0079075722383</v>
       </c>
       <c r="P17" t="n">
-        <v>270.7287089420072</v>
+        <v>226.0206596260516</v>
       </c>
       <c r="Q17" t="n">
         <v>229.0964973137311</v>
       </c>
       <c r="R17" t="n">
-        <v>285.1060282598162</v>
+        <v>238.5155347621361</v>
       </c>
       <c r="S17" t="n">
-        <v>274.4882997445222</v>
+        <v>227.8978062468421</v>
       </c>
       <c r="T17" t="n">
-        <v>222.5390356802776</v>
+        <v>269.1295291779577</v>
       </c>
       <c r="U17" t="n">
-        <v>250.15187840697</v>
+        <v>296.7423719046501</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="W17" t="n">
         <v>337.8964638257669</v>
@@ -28819,13 +28819,13 @@
         <v>337.8964638257669</v>
       </c>
       <c r="I20" t="n">
-        <v>241.6540365820939</v>
+        <v>288.2445300797741</v>
       </c>
       <c r="J20" t="n">
-        <v>187.7745872433966</v>
+        <v>232.4826365593523</v>
       </c>
       <c r="K20" t="n">
-        <v>218.8991759293892</v>
+        <v>265.4896694270693</v>
       </c>
       <c r="L20" t="n">
         <v>226.0888856784138</v>
@@ -28837,7 +28837,7 @@
         <v>210.2938881293059</v>
       </c>
       <c r="O20" t="n">
-        <v>242.6992766715791</v>
+        <v>215.0079075722383</v>
       </c>
       <c r="P20" t="n">
         <v>226.0206596260516</v>
@@ -28846,19 +28846,19 @@
         <v>229.0964973137311</v>
       </c>
       <c r="R20" t="n">
-        <v>238.5155347621361</v>
+        <v>285.1060282598162</v>
       </c>
       <c r="S20" t="n">
-        <v>274.4882997445222</v>
+        <v>227.8978062468421</v>
       </c>
       <c r="T20" t="n">
-        <v>269.1295291779577</v>
+        <v>222.5390356802776</v>
       </c>
       <c r="U20" t="n">
-        <v>296.7423719046501</v>
+        <v>250.15187840697</v>
       </c>
       <c r="V20" t="n">
-        <v>337.8964638257669</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
         <v>337.8964638257669</v>
@@ -29071,7 +29071,7 @@
         <v>289.8921196973438</v>
       </c>
       <c r="N23" t="n">
-        <v>287.645543361875</v>
+        <v>267.503543741924</v>
       </c>
       <c r="O23" t="n">
         <v>215.0079075722383</v>
@@ -29083,19 +29083,19 @@
         <v>229.0964973137311</v>
       </c>
       <c r="R23" t="n">
-        <v>315.8671899947052</v>
+        <v>238.5155347621361</v>
       </c>
       <c r="S23" t="n">
-        <v>227.8978062468421</v>
+        <v>305.2494614794111</v>
       </c>
       <c r="T23" t="n">
-        <v>222.5390356802776</v>
+        <v>299.8906909128467</v>
       </c>
       <c r="U23" t="n">
-        <v>324.3782142362029</v>
+        <v>250.15187840697</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="W23" t="n">
         <v>337.8964638257669</v>
@@ -29302,7 +29302,7 @@
         <v>225.245348778891</v>
       </c>
       <c r="L26" t="n">
-        <v>225.245348778891</v>
+        <v>135.5341717748077</v>
       </c>
       <c r="M26" t="n">
         <v>225.245348778891</v>
@@ -29311,7 +29311,7 @@
         <v>225.245348778891</v>
       </c>
       <c r="O26" t="n">
-        <v>164.8482258692543</v>
+        <v>225.245348778891</v>
       </c>
       <c r="P26" t="n">
         <v>17.4950967309308</v>
@@ -29320,7 +29320,7 @@
         <v>225.245348778891</v>
       </c>
       <c r="R26" t="n">
-        <v>195.9312946844435</v>
+        <v>225.245348778891</v>
       </c>
       <c r="S26" t="n">
         <v>225.245348778891</v>
@@ -29375,7 +29375,7 @@
         <v>107.6712612734238</v>
       </c>
       <c r="J27" t="n">
-        <v>53.31993686428369</v>
+        <v>79.751300808313</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29384,7 +29384,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>34.12161695927998</v>
+        <v>120.530664604109</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>144.1409005499619</v>
+        <v>8.010818097131715</v>
       </c>
       <c r="R27" t="n">
         <v>135.274952095715</v>
@@ -29433,37 +29433,37 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>166.4571809719723</v>
+        <v>225.245348778891</v>
       </c>
       <c r="D28" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>225.245348778891</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.7082710988915</v>
+        <v>191.9779696944569</v>
       </c>
       <c r="H28" t="n">
-        <v>225.245348778891</v>
+        <v>165.8910454361281</v>
       </c>
       <c r="I28" t="n">
         <v>165.0783983962621</v>
       </c>
       <c r="J28" t="n">
-        <v>142.5658713019824</v>
+        <v>120.7695869248576</v>
       </c>
       <c r="K28" t="n">
         <v>67.90089900123245</v>
       </c>
       <c r="L28" t="n">
-        <v>33.26629254472368</v>
+        <v>138.5498991436509</v>
       </c>
       <c r="M28" t="n">
-        <v>42.02801669885407</v>
+        <v>26.39192439249268</v>
       </c>
       <c r="N28" t="n">
         <v>17.66727608639878</v>
@@ -29472,10 +29472,10 @@
         <v>38.53843379957932</v>
       </c>
       <c r="P28" t="n">
-        <v>146.869479826074</v>
+        <v>225.245348778891</v>
       </c>
       <c r="Q28" t="n">
-        <v>170.1869251550914</v>
+        <v>127.8446881263084</v>
       </c>
       <c r="R28" t="n">
         <v>203.7670162958267</v>
@@ -29484,7 +29484,7 @@
         <v>225.245348778891</v>
       </c>
       <c r="T28" t="n">
-        <v>223.7935875477534</v>
+        <v>225.245348778891</v>
       </c>
       <c r="U28" t="n">
         <v>225.245348778891</v>
@@ -29496,7 +29496,7 @@
         <v>225.245348778891</v>
       </c>
       <c r="X28" t="n">
-        <v>225.245348778891</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y28" t="n">
         <v>217.1412728141684</v>
@@ -29536,13 +29536,13 @@
         <v>225.245348778891</v>
       </c>
       <c r="K29" t="n">
-        <v>225.245348778891</v>
+        <v>61.51288513962748</v>
       </c>
       <c r="L29" t="n">
         <v>225.245348778891</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>225.245348778891</v>
       </c>
       <c r="N29" t="n">
         <v>225.245348778891</v>
@@ -29551,10 +29551,10 @@
         <v>225.245348778891</v>
       </c>
       <c r="P29" t="n">
-        <v>153.0292685057374</v>
+        <v>225.245348778891</v>
       </c>
       <c r="Q29" t="n">
-        <v>225.245348778891</v>
+        <v>91.51638336611309</v>
       </c>
       <c r="R29" t="n">
         <v>225.245348778891</v>
@@ -29606,19 +29606,19 @@
         <v>148.7535458774181</v>
       </c>
       <c r="H30" t="n">
-        <v>145.9341467204907</v>
+        <v>125.821879712732</v>
       </c>
       <c r="I30" t="n">
-        <v>114.2327454257069</v>
+        <v>107.6712612734239</v>
       </c>
       <c r="J30" t="n">
-        <v>135.0269277648686</v>
+        <v>53.31993686428378</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>123.7278653163661</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -29627,13 +29627,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>124.3189179316646</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>8.010818097131693</v>
+        <v>35.07281267166937</v>
       </c>
       <c r="R30" t="n">
         <v>135.274952095715</v>
@@ -29682,40 +29682,40 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>225.245348778891</v>
+        <v>168.7082710988915</v>
       </c>
       <c r="H31" t="n">
-        <v>225.245348778891</v>
+        <v>165.8910454361281</v>
       </c>
       <c r="I31" t="n">
         <v>165.0783983962621</v>
       </c>
       <c r="J31" t="n">
-        <v>120.7695869248576</v>
+        <v>120.7695869248577</v>
       </c>
       <c r="K31" t="n">
-        <v>67.90089900123243</v>
+        <v>67.90089900123253</v>
       </c>
       <c r="L31" t="n">
-        <v>79.26040810840001</v>
+        <v>33.2662925447238</v>
       </c>
       <c r="M31" t="n">
-        <v>26.39192439249266</v>
+        <v>225.245348778891</v>
       </c>
       <c r="N31" t="n">
-        <v>17.66727608639875</v>
+        <v>17.6672760863989</v>
       </c>
       <c r="O31" t="n">
-        <v>38.53843379957929</v>
+        <v>144.1894336046713</v>
       </c>
       <c r="P31" t="n">
-        <v>59.38522679857537</v>
+        <v>59.38522679857549</v>
       </c>
       <c r="Q31" t="n">
         <v>170.1869251550914</v>
       </c>
       <c r="R31" t="n">
-        <v>203.7670162958267</v>
+        <v>203.7670162958268</v>
       </c>
       <c r="S31" t="n">
         <v>225.245348778891</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>227.7456991078019</v>
+        <v>227.7456991078018</v>
       </c>
       <c r="C32" t="n">
-        <v>227.7456991078019</v>
+        <v>227.7456991078018</v>
       </c>
       <c r="D32" t="n">
-        <v>227.7456991078019</v>
+        <v>227.7456991078018</v>
       </c>
       <c r="E32" t="n">
-        <v>227.7456991078019</v>
+        <v>227.7456991078018</v>
       </c>
       <c r="F32" t="n">
-        <v>227.7456991078019</v>
+        <v>227.7456991078018</v>
       </c>
       <c r="G32" t="n">
-        <v>227.7456991078019</v>
+        <v>227.7456991078018</v>
       </c>
       <c r="H32" t="n">
-        <v>227.7456991078019</v>
+        <v>227.7456991078018</v>
       </c>
       <c r="I32" t="n">
-        <v>227.7456991078019</v>
+        <v>227.7456991078018</v>
       </c>
       <c r="J32" t="n">
-        <v>227.7456991078019</v>
+        <v>227.7456991078018</v>
       </c>
       <c r="K32" t="n">
-        <v>202.587280447125</v>
+        <v>227.7456991078018</v>
       </c>
       <c r="L32" t="n">
-        <v>227.7456991078019</v>
+        <v>227.7456991078018</v>
       </c>
       <c r="M32" t="n">
-        <v>227.7456991078019</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>227.7456991078019</v>
+        <v>227.7456991078018</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>227.7456991078018</v>
       </c>
       <c r="P32" t="n">
-        <v>227.7456991078019</v>
+        <v>130.4753483059273</v>
       </c>
       <c r="Q32" t="n">
-        <v>227.7456991078019</v>
+        <v>227.7456991078018</v>
       </c>
       <c r="R32" t="n">
-        <v>227.7456991078019</v>
+        <v>227.7456991078018</v>
       </c>
       <c r="S32" t="n">
-        <v>227.7456991078019</v>
+        <v>227.7456991078018</v>
       </c>
       <c r="T32" t="n">
-        <v>227.7456991078019</v>
+        <v>227.7456991078018</v>
       </c>
       <c r="U32" t="n">
-        <v>227.7456991078019</v>
+        <v>227.7456991078018</v>
       </c>
       <c r="V32" t="n">
-        <v>227.7456991078019</v>
+        <v>227.7456991078018</v>
       </c>
       <c r="W32" t="n">
-        <v>227.7456991078019</v>
+        <v>227.7456991078018</v>
       </c>
       <c r="X32" t="n">
-        <v>227.7456991078019</v>
+        <v>227.7456991078018</v>
       </c>
       <c r="Y32" t="n">
-        <v>227.7456991078019</v>
+        <v>227.7456991078018</v>
       </c>
     </row>
     <row r="33">
@@ -29846,7 +29846,7 @@
         <v>125.821879712732</v>
       </c>
       <c r="I33" t="n">
-        <v>107.6712612734238</v>
+        <v>176.8233636443382</v>
       </c>
       <c r="J33" t="n">
         <v>53.31993686428369</v>
@@ -29864,7 +29864,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>124.3189179316643</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>8.010818097131715</v>
       </c>
       <c r="R33" t="n">
-        <v>164.7729941334509</v>
+        <v>135.274952095715</v>
       </c>
       <c r="S33" t="n">
         <v>191.7568739551844</v>
@@ -29882,13 +29882,13 @@
         <v>215.0069637334078</v>
       </c>
       <c r="U33" t="n">
-        <v>227.7456991078019</v>
+        <v>227.7456991078018</v>
       </c>
       <c r="V33" t="n">
-        <v>227.7456991078019</v>
+        <v>227.7456991078018</v>
       </c>
       <c r="W33" t="n">
-        <v>227.7456991078019</v>
+        <v>227.7456991078018</v>
       </c>
       <c r="X33" t="n">
         <v>217.3129144394706</v>
@@ -29922,31 +29922,31 @@
         <v>168.7082710988915</v>
       </c>
       <c r="H34" t="n">
-        <v>227.7456991078019</v>
+        <v>165.8910454361281</v>
       </c>
       <c r="I34" t="n">
-        <v>227.7456991078019</v>
+        <v>165.0783983962621</v>
       </c>
       <c r="J34" t="n">
         <v>120.7695869248576</v>
       </c>
       <c r="K34" t="n">
-        <v>137.0708595925673</v>
+        <v>108.692239585183</v>
       </c>
       <c r="L34" t="n">
-        <v>138.5498991436509</v>
+        <v>33.26629254472368</v>
       </c>
       <c r="M34" t="n">
-        <v>142.0661846618135</v>
+        <v>75.38029663859322</v>
       </c>
       <c r="N34" t="n">
-        <v>17.66727608639878</v>
+        <v>227.7456991078018</v>
       </c>
       <c r="O34" t="n">
-        <v>61.74539416865775</v>
+        <v>38.53843379957932</v>
       </c>
       <c r="P34" t="n">
-        <v>59.38522679857539</v>
+        <v>146.869479826074</v>
       </c>
       <c r="Q34" t="n">
         <v>170.1869251550914</v>
@@ -29955,19 +29955,19 @@
         <v>203.7670162958267</v>
       </c>
       <c r="S34" t="n">
-        <v>227.7456991078019</v>
+        <v>227.7456991078018</v>
       </c>
       <c r="T34" t="n">
-        <v>227.7456991078019</v>
+        <v>227.7456991078018</v>
       </c>
       <c r="U34" t="n">
-        <v>227.7456991078019</v>
+        <v>227.7456991078018</v>
       </c>
       <c r="V34" t="n">
-        <v>227.7456991078019</v>
+        <v>227.7456991078018</v>
       </c>
       <c r="W34" t="n">
-        <v>227.7456991078019</v>
+        <v>227.7456991078018</v>
       </c>
       <c r="X34" t="n">
         <v>221.9194554082425</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="C35" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="D35" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="E35" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="F35" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="G35" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="H35" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="I35" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="J35" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="K35" t="n">
-        <v>14.61182606913363</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="L35" t="n">
-        <v>241.654036582094</v>
+        <v>90.29435360868854</v>
       </c>
       <c r="M35" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="N35" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="O35" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="P35" t="n">
-        <v>241.654036582094</v>
+        <v>17.4950967309308</v>
       </c>
       <c r="Q35" t="n">
-        <v>241.654036582094</v>
+        <v>91.5163833661129</v>
       </c>
       <c r="R35" t="n">
-        <v>241.654036582094</v>
+        <v>195.9312946844435</v>
       </c>
       <c r="S35" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="T35" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="U35" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="V35" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="W35" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="X35" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
     </row>
     <row r="36">
@@ -30083,31 +30083,31 @@
         <v>125.821879712732</v>
       </c>
       <c r="I36" t="n">
-        <v>114.2327454257069</v>
+        <v>107.6712612734238</v>
       </c>
       <c r="J36" t="n">
         <v>135.0269277648686</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>134.4705200961129</v>
       </c>
       <c r="L36" t="n">
         <v>123.7278653163661</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>120.530664604109</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>105.9646447700223</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>124.3189179316643</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>8.010818097131715</v>
+        <v>144.1409005499619</v>
       </c>
       <c r="R36" t="n">
         <v>164.7729941334509</v>
@@ -30116,16 +30116,16 @@
         <v>191.7568739551844</v>
       </c>
       <c r="T36" t="n">
-        <v>215.0069637334078</v>
+        <v>236.1407594672236</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2286577470722</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>203.5470708482998</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
-        <v>241.654036582094</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D37" t="n">
         <v>145.1826502507107</v>
@@ -30165,13 +30165,13 @@
         <v>165.0783983962621</v>
       </c>
       <c r="J37" t="n">
-        <v>142.5658713019824</v>
+        <v>120.7695869248576</v>
       </c>
       <c r="K37" t="n">
-        <v>137.0708595925673</v>
+        <v>67.90089900123245</v>
       </c>
       <c r="L37" t="n">
-        <v>33.26629254472368</v>
+        <v>138.5498991436509</v>
       </c>
       <c r="M37" t="n">
         <v>26.39192439249268</v>
@@ -30180,7 +30180,7 @@
         <v>17.66727608639878</v>
       </c>
       <c r="O37" t="n">
-        <v>144.1894336046712</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="P37" t="n">
         <v>146.869479826074</v>
@@ -30198,13 +30198,13 @@
         <v>223.7935875477534</v>
       </c>
       <c r="U37" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="V37" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="W37" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="C38" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="D38" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="E38" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="F38" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="G38" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="H38" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="I38" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="J38" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="K38" t="n">
-        <v>241.654036582094</v>
+        <v>8.852948583274433</v>
       </c>
       <c r="L38" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="M38" t="n">
-        <v>61.53982380444074</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="N38" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="O38" t="n">
-        <v>241.654036582094</v>
+        <v>62.02968019769026</v>
       </c>
       <c r="P38" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="Q38" t="n">
-        <v>241.654036582094</v>
+        <v>91.5163833661129</v>
       </c>
       <c r="R38" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="S38" t="n">
-        <v>241.654036582094</v>
+        <v>227.8978062468421</v>
       </c>
       <c r="T38" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="U38" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="V38" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="W38" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="X38" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
     </row>
     <row r="39">
@@ -30326,28 +30326,28 @@
         <v>135.0269277648686</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>134.4705200961129</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>123.7278653163661</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>105.9646447700223</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>124.3189179316643</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>123.601478473206</v>
       </c>
       <c r="Q39" t="n">
-        <v>8.010818097131715</v>
+        <v>144.1409005499619</v>
       </c>
       <c r="R39" t="n">
-        <v>164.7729941334509</v>
+        <v>189.3270530355967</v>
       </c>
       <c r="S39" t="n">
         <v>191.7568739551844</v>
@@ -30359,10 +30359,10 @@
         <v>237.2286577470722</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="W39" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -30387,7 +30387,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
-        <v>241.654036582094</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
         <v>138.9268822184467</v>
@@ -30408,22 +30408,22 @@
         <v>137.0708595925673</v>
       </c>
       <c r="L40" t="n">
-        <v>138.5498991436509</v>
+        <v>33.26629254472368</v>
       </c>
       <c r="M40" t="n">
-        <v>26.39192439249268</v>
+        <v>142.0661846618135</v>
       </c>
       <c r="N40" t="n">
         <v>17.66727608639878</v>
       </c>
       <c r="O40" t="n">
-        <v>144.1894336046712</v>
+        <v>38.53843379957932</v>
       </c>
       <c r="P40" t="n">
-        <v>146.869479826074</v>
+        <v>158.6689251581845</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.8446881263084</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="R40" t="n">
         <v>203.7670162958267</v>
@@ -30432,22 +30432,22 @@
         <v>235.5686821954869</v>
       </c>
       <c r="T40" t="n">
-        <v>223.7935875477534</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="U40" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="V40" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="W40" t="n">
-        <v>241.654036582094</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.2903832377528</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="41">
@@ -30484,13 +30484,13 @@
         <v>78.19998061189278</v>
       </c>
       <c r="K41" t="n">
+        <v>188.1148643408203</v>
+      </c>
+      <c r="L41" t="n">
         <v>241.6540365820939</v>
       </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
       <c r="M41" t="n">
-        <v>241.6540365820939</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>241.6540365820939</v>
@@ -30502,13 +30502,13 @@
         <v>241.6540365820939</v>
       </c>
       <c r="Q41" t="n">
-        <v>241.6540365820939</v>
+        <v>217.0728368062742</v>
       </c>
       <c r="R41" t="n">
         <v>241.6540365820939</v>
       </c>
       <c r="S41" t="n">
-        <v>227.8978062468421</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="T41" t="n">
         <v>241.6540365820939</v>
@@ -30557,31 +30557,31 @@
         <v>125.821879712732</v>
       </c>
       <c r="I42" t="n">
-        <v>107.6712612734238</v>
+        <v>114.2327454257069</v>
       </c>
       <c r="J42" t="n">
-        <v>135.0269277648686</v>
+        <v>53.31993686428369</v>
       </c>
       <c r="K42" t="n">
         <v>134.4705200961129</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>123.7278653163661</v>
       </c>
       <c r="M42" t="n">
-        <v>120.530664604109</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>105.9646447700223</v>
       </c>
       <c r="O42" t="n">
-        <v>124.3189179316643</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>149.1606530420435</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.83795017891694</v>
+        <v>144.1409005499619</v>
       </c>
       <c r="R42" t="n">
         <v>135.274952095715</v>
@@ -30633,7 +30633,7 @@
         <v>168.7082710988915</v>
       </c>
       <c r="H43" t="n">
-        <v>241.6540365820939</v>
+        <v>165.8910454361281</v>
       </c>
       <c r="I43" t="n">
         <v>165.0783983962621</v>
@@ -30645,16 +30645,16 @@
         <v>137.0708595925673</v>
       </c>
       <c r="L43" t="n">
-        <v>163.9139137911388</v>
+        <v>138.5498991436509</v>
       </c>
       <c r="M43" t="n">
-        <v>26.39192439249268</v>
+        <v>142.0661846618135</v>
       </c>
       <c r="N43" t="n">
-        <v>129.00515660161</v>
+        <v>230.1321623950638</v>
       </c>
       <c r="O43" t="n">
-        <v>144.1894336046712</v>
+        <v>38.53843379957932</v>
       </c>
       <c r="P43" t="n">
         <v>59.38522679857539</v>
@@ -30718,19 +30718,19 @@
         <v>241.6540365820939</v>
       </c>
       <c r="J44" t="n">
-        <v>241.6540365820939</v>
+        <v>78.19998061189278</v>
       </c>
       <c r="K44" t="n">
         <v>241.6540365820939</v>
       </c>
       <c r="L44" t="n">
-        <v>89.78500684054617</v>
+        <v>158.4880129860733</v>
       </c>
       <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>241.6540365820939</v>
-      </c>
-      <c r="N44" t="n">
-        <v>111.8434390455205</v>
       </c>
       <c r="O44" t="n">
         <v>241.6540365820939</v>
@@ -30739,16 +30739,16 @@
         <v>241.6540365820939</v>
       </c>
       <c r="Q44" t="n">
-        <v>91.5163833661129</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="R44" t="n">
-        <v>195.9312946844435</v>
+        <v>241.6540365820939</v>
       </c>
       <c r="S44" t="n">
         <v>241.6540365820939</v>
       </c>
       <c r="T44" t="n">
-        <v>241.6540365820939</v>
+        <v>222.5390356802776</v>
       </c>
       <c r="U44" t="n">
         <v>241.6540365820939</v>
@@ -30794,19 +30794,19 @@
         <v>125.821879712732</v>
       </c>
       <c r="I45" t="n">
-        <v>114.2327454257069</v>
+        <v>107.6712612734238</v>
       </c>
       <c r="J45" t="n">
-        <v>135.0269277648686</v>
+        <v>53.31993686428369</v>
       </c>
       <c r="K45" t="n">
-        <v>134.4705200961129</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>149.2870398852037</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>120.530664604109</v>
       </c>
       <c r="N45" t="n">
         <v>105.9646447700223</v>
@@ -30815,13 +30815,13 @@
         <v>124.3189179316643</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>123.601478473206</v>
       </c>
       <c r="Q45" t="n">
-        <v>144.1409005499619</v>
+        <v>8.010818097131715</v>
       </c>
       <c r="R45" t="n">
-        <v>135.274952095715</v>
+        <v>164.7729941334509</v>
       </c>
       <c r="S45" t="n">
         <v>191.7568739551844</v>
@@ -30882,22 +30882,22 @@
         <v>137.0708595925673</v>
       </c>
       <c r="L46" t="n">
-        <v>138.5498991436509</v>
+        <v>239.6769049371047</v>
       </c>
       <c r="M46" t="n">
-        <v>26.39192439249268</v>
+        <v>142.0661846618135</v>
       </c>
       <c r="N46" t="n">
-        <v>230.1321623950637</v>
+        <v>129.00515660161</v>
       </c>
       <c r="O46" t="n">
         <v>144.1894336046712</v>
       </c>
       <c r="P46" t="n">
-        <v>146.869479826074</v>
+        <v>59.38522679857539</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.1869251550914</v>
+        <v>127.8446881263084</v>
       </c>
       <c r="R46" t="n">
         <v>203.7670162958267</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3900077029606996</v>
+        <v>0.3900077029606975</v>
       </c>
       <c r="H29" t="n">
-        <v>3.994166387946266</v>
+        <v>3.994166387946244</v>
       </c>
       <c r="I29" t="n">
-        <v>15.03577196839239</v>
+        <v>15.03577196839231</v>
       </c>
       <c r="J29" t="n">
-        <v>33.10141627916071</v>
+        <v>33.10141627916053</v>
       </c>
       <c r="K29" t="n">
-        <v>49.61044234548714</v>
+        <v>49.61044234548687</v>
       </c>
       <c r="L29" t="n">
-        <v>61.54614058497066</v>
+        <v>61.54614058497032</v>
       </c>
       <c r="M29" t="n">
-        <v>68.48194007249799</v>
+        <v>68.48194007249762</v>
       </c>
       <c r="N29" t="n">
-        <v>69.59004945853509</v>
+        <v>69.59004945853471</v>
       </c>
       <c r="O29" t="n">
-        <v>65.71191036221963</v>
+        <v>65.71191036221927</v>
       </c>
       <c r="P29" t="n">
-        <v>56.08359519537735</v>
+        <v>56.08359519537704</v>
       </c>
       <c r="Q29" t="n">
-        <v>42.11644433309728</v>
+        <v>42.11644433309705</v>
       </c>
       <c r="R29" t="n">
-        <v>24.49882137110507</v>
+        <v>24.49882137110494</v>
       </c>
       <c r="S29" t="n">
-        <v>8.887300531216951</v>
+        <v>8.887300531216903</v>
       </c>
       <c r="T29" t="n">
-        <v>1.707258719710463</v>
+        <v>1.707258719710454</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03120061623685596</v>
+        <v>0.0312006162368558</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2086725176737368</v>
+        <v>0.2086725176737356</v>
       </c>
       <c r="H30" t="n">
-        <v>2.015337210164774</v>
+        <v>2.015337210164763</v>
       </c>
       <c r="I30" t="n">
-        <v>7.18455817429313</v>
+        <v>7.184558174293092</v>
       </c>
       <c r="J30" t="n">
-        <v>19.71497676846475</v>
+        <v>19.71497676846465</v>
       </c>
       <c r="K30" t="n">
-        <v>33.69603545260512</v>
+        <v>33.69603545260493</v>
       </c>
       <c r="L30" t="n">
-        <v>45.30847801508043</v>
+        <v>45.30847801508019</v>
       </c>
       <c r="M30" t="n">
-        <v>52.87285678075338</v>
+        <v>52.8728567807531</v>
       </c>
       <c r="N30" t="n">
-        <v>54.27224397164437</v>
+        <v>54.27224397164407</v>
       </c>
       <c r="O30" t="n">
-        <v>49.64850029055788</v>
+        <v>49.64850029055761</v>
       </c>
       <c r="P30" t="n">
-        <v>39.84729857227698</v>
+        <v>39.84729857227676</v>
       </c>
       <c r="Q30" t="n">
-        <v>26.63686383498436</v>
+        <v>26.63686383498422</v>
       </c>
       <c r="R30" t="n">
-        <v>12.95600070258517</v>
+        <v>12.9560007025851</v>
       </c>
       <c r="S30" t="n">
-        <v>3.87600049275559</v>
+        <v>3.876000492755569</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8410966830796667</v>
+        <v>0.8410966830796621</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01372845511011427</v>
+        <v>0.01372845511011419</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1749440290534779</v>
+        <v>0.1749440290534769</v>
       </c>
       <c r="H31" t="n">
-        <v>1.555411458311832</v>
+        <v>1.555411458311823</v>
       </c>
       <c r="I31" t="n">
-        <v>5.261044073717319</v>
+        <v>5.261044073717289</v>
       </c>
       <c r="J31" t="n">
-        <v>12.36854285408089</v>
+        <v>12.36854285408082</v>
       </c>
       <c r="K31" t="n">
-        <v>20.32531537548588</v>
+        <v>20.32531537548577</v>
       </c>
       <c r="L31" t="n">
-        <v>26.0094059194598</v>
+        <v>26.00940591945966</v>
       </c>
       <c r="M31" t="n">
-        <v>27.42327175426471</v>
+        <v>27.42327175426457</v>
       </c>
       <c r="N31" t="n">
-        <v>26.7712076459745</v>
+        <v>26.77120764597436</v>
       </c>
       <c r="O31" t="n">
-        <v>24.72754330657705</v>
+        <v>24.72754330657691</v>
       </c>
       <c r="P31" t="n">
-        <v>21.15868511388608</v>
+        <v>21.15868511388597</v>
       </c>
       <c r="Q31" t="n">
-        <v>14.64917683283259</v>
+        <v>14.64917683283251</v>
       </c>
       <c r="R31" t="n">
-        <v>7.866119706350013</v>
+        <v>7.86611970634997</v>
       </c>
       <c r="S31" t="n">
-        <v>3.048797306322882</v>
+        <v>3.048797306322865</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7474881241375871</v>
+        <v>0.747488124137583</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009542401584735167</v>
+        <v>0.009542401584735117</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>15.39399522150821</v>
+        <v>46.59049349768016</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>6.346172849501791</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>46.59049349768016</v>
       </c>
       <c r="N11" t="n">
-        <v>46.59049349768014</v>
+        <v>9.047822372006431</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>46.59049349768016</v>
       </c>
       <c r="P11" t="n">
-        <v>46.59049349768014</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>46.59049349768014</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>29.31405409444748</v>
@@ -35474,7 +35474,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>46.59049349768016</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -35501,16 +35501,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>15.72104308710428</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>46.59049349768014</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>23.65347742652466</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35528,7 +35528,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>7.932434339420382</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.59049349768014</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -35550,28 +35550,28 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>46.59049349768016</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>29.36597629914293</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>46.59049349768014</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>32.69186966979139</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>46.59049349768016</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -35607,7 +35607,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>3.325893370648458</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>37.47076153549435</v>
+        <v>46.59049349768016</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>6.346172849501791</v>
       </c>
       <c r="L14" t="n">
         <v>44.55558135027804</v>
@@ -35656,10 +35656,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>46.59049349768014</v>
+        <v>40.39678861385602</v>
       </c>
       <c r="O14" t="n">
-        <v>26.54863933109609</v>
+        <v>46.59049349768016</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35668,13 +35668,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>29.31405409444745</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.706313098613374</v>
+        <v>2.706313098613403</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -35705,7 +35705,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>46.59049349768016</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -35714,10 +35714,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>15.72104308710439</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>46.59049349768014</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -35738,7 +35738,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>23.65347742652466</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35765,7 +35765,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>7.932434339420354</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -35781,7 +35781,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>46.59049349768014</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -35793,10 +35793,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>46.59049349768016</v>
       </c>
       <c r="H16" t="n">
-        <v>32.69186966979145</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -35808,7 +35808,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>32.69186966979139</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -35820,10 +35820,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>46.59049349768016</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.59049349768014</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>27.69136909934083</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>46.59049349768016</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -35893,31 +35893,31 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>46.59049349768014</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>44.70804931595568</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>46.59049349768014</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.59049349768014</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>46.59049349768016</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>46.59049349768016</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>17.01668021661487</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36115,13 +36115,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>46.59049349768016</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>44.70804931595571</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>46.59049349768016</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>27.69136909934082</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36142,19 +36142,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>46.59049349768016</v>
       </c>
       <c r="S20" t="n">
-        <v>46.59049349768014</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>46.59049349768014</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>46.59049349768014</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>17.01668021661487</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36364,10 +36364,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>77.35165523256904</v>
+        <v>77.35165523256906</v>
       </c>
       <c r="N23" t="n">
-        <v>77.35165523256904</v>
+        <v>57.20965561261805</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -36379,19 +36379,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>77.35165523256904</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>77.35165523256906</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>77.35165523256906</v>
       </c>
       <c r="U23" t="n">
-        <v>74.22633582923292</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>17.01668021661487</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36595,10 +36595,10 @@
         <v>147.0453681669982</v>
       </c>
       <c r="K26" t="n">
-        <v>216.3924001956165</v>
+        <v>216.3924001956166</v>
       </c>
       <c r="L26" t="n">
-        <v>269.800930129169</v>
+        <v>180.0897531250857</v>
       </c>
       <c r="M26" t="n">
         <v>303.9896540174717</v>
@@ -36607,7 +36607,7 @@
         <v>298.3522676685508</v>
       </c>
       <c r="O26" t="n">
-        <v>196.5988357552751</v>
+        <v>256.9959586649118</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36616,13 +36616,13 @@
         <v>133.7289654127781</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>29.31405409444751</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>2.706313098613403</v>
+        <v>2.706313098613431</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -36683,10 +36683,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>70.24397092420473</v>
       </c>
       <c r="O27" t="n">
-        <v>70.2439709242048</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36729,22 +36729,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>58.78816780691866</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>83.56920756666599</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>23.26969859556539</v>
       </c>
       <c r="H28" t="n">
-        <v>59.35430334276294</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>15.63609230636139</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -36768,7 +36768,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>78.375868952817</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36780,7 +36780,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.451761231137649</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -36792,7 +36792,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>3.325893370648458</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -36829,37 +36829,37 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>147.0453681669982</v>
+        <v>147.0453681669981</v>
       </c>
       <c r="K29" t="n">
-        <v>216.3924001956166</v>
+        <v>52.65993655635282</v>
       </c>
       <c r="L29" t="n">
-        <v>269.800930129169</v>
+        <v>269.8009301291688</v>
       </c>
       <c r="M29" t="n">
-        <v>78.74430523858075</v>
+        <v>303.9896540174714</v>
       </c>
       <c r="N29" t="n">
-        <v>298.3522676685509</v>
+        <v>298.3522676685506</v>
       </c>
       <c r="O29" t="n">
-        <v>256.9959586649118</v>
+        <v>256.9959586649114</v>
       </c>
       <c r="P29" t="n">
-        <v>135.5341717748067</v>
+        <v>207.75025204796</v>
       </c>
       <c r="Q29" t="n">
-        <v>133.7289654127781</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>29.3140540944475</v>
+        <v>29.3140540944474</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>2.706313098613403</v>
+        <v>2.706313098613423</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -36902,7 +36902,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>20.11226700775875</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -36911,19 +36911,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>36.90295348803812</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>70.24397092420473</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>13.22875042840793</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36978,10 +36978,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>56.5370776799995</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>59.35430334276294</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -36993,10 +36993,10 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>45.99411556367637</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>161.8854965864387</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -37069,34 +37069,34 @@
         <v>149.5457184959091</v>
       </c>
       <c r="K32" t="n">
-        <v>193.7343318638506</v>
+        <v>218.8927505245274</v>
       </c>
       <c r="L32" t="n">
         <v>272.3012804580799</v>
       </c>
       <c r="M32" t="n">
-        <v>306.4900043463826</v>
+        <v>78.74430523858069</v>
       </c>
       <c r="N32" t="n">
-        <v>260.4912957422835</v>
+        <v>300.8526179974617</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>259.4963089938226</v>
       </c>
       <c r="P32" t="n">
-        <v>210.2506023768711</v>
+        <v>112.9802515749965</v>
       </c>
       <c r="Q32" t="n">
-        <v>136.229315741689</v>
+        <v>136.2293157416889</v>
       </c>
       <c r="R32" t="n">
-        <v>31.81440442335839</v>
+        <v>31.81440442335834</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>5.206663427524314</v>
+        <v>5.206663427524258</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>62.59061821863133</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>62.59061821863116</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37218,10 +37218,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>61.85465367167385</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.6673007115398</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>48.98837224610055</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>98.74054250619182</v>
       </c>
       <c r="O34" t="n">
-        <v>23.20696036907843</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37254,7 +37254,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>3.952111560048533</v>
+        <v>3.952111560048476</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -37303,37 +37303,37 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>163.4540559702012</v>
+        <v>163.4540559702011</v>
       </c>
       <c r="K35" t="n">
-        <v>5.758877485859195</v>
+        <v>232.8010879988195</v>
       </c>
       <c r="L35" t="n">
-        <v>15.56515090368021</v>
+        <v>134.8499349589666</v>
       </c>
       <c r="M35" t="n">
-        <v>320.3983418206747</v>
+        <v>320.3983418206746</v>
       </c>
       <c r="N35" t="n">
-        <v>314.7609554717538</v>
+        <v>223.6495930830192</v>
       </c>
       <c r="O35" t="n">
-        <v>108.6009436828306</v>
+        <v>273.4046464681147</v>
       </c>
       <c r="P35" t="n">
-        <v>224.1589398511632</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>150.1376532159811</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>45.72274189765052</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>13.75623033525196</v>
+        <v>13.75623033525185</v>
       </c>
       <c r="T35" t="n">
-        <v>19.11500090181644</v>
+        <v>19.11500090181633</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37394,7 +37394,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>25.55917456883743</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37412,10 +37412,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>21.13379573381588</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>4.425378835021664</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -37437,10 +37437,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>25.93015018333167</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>75.19685561012167</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>101.1270057934537</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37540,37 +37540,37 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>163.4540559702012</v>
+        <v>163.4540559702011</v>
       </c>
       <c r="K38" t="n">
-        <v>232.8010879988196</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>286.2096179323721</v>
+        <v>200.0385655398932</v>
       </c>
       <c r="M38" t="n">
-        <v>121.4731225380169</v>
+        <v>320.3983418206747</v>
       </c>
       <c r="N38" t="n">
-        <v>31.3601484527881</v>
+        <v>314.7609554717538</v>
       </c>
       <c r="O38" t="n">
-        <v>273.4046464681147</v>
+        <v>93.78029008371101</v>
       </c>
       <c r="P38" t="n">
         <v>224.1589398511632</v>
       </c>
       <c r="Q38" t="n">
-        <v>12.55753926836287</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>3.138501819957877</v>
+        <v>45.72274189765044</v>
       </c>
       <c r="S38" t="n">
-        <v>13.75623033525194</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>19.11500090181641</v>
+        <v>19.11500090181636</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>25.55917456883746</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>24.55405890214583</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37655,7 +37655,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>1.005115666691694</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -37683,7 +37683,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>99.977895369869</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37716,10 +37716,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>11.79944533211046</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>71.46711142700258</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37728,7 +37728,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>17.86044903434057</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -37743,7 +37743,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.149110423584421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -37780,34 +37780,34 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>232.8010879988195</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>286.2096179323719</v>
       </c>
       <c r="M41" t="n">
-        <v>320.3983418206746</v>
+        <v>78.74430523858069</v>
       </c>
       <c r="N41" t="n">
-        <v>253.2705933302641</v>
+        <v>314.7609554717537</v>
       </c>
       <c r="O41" t="n">
-        <v>273.4046464681147</v>
+        <v>273.4046464681146</v>
       </c>
       <c r="P41" t="n">
         <v>224.1589398511631</v>
       </c>
       <c r="Q41" t="n">
-        <v>12.55753926836278</v>
+        <v>125.5564534401612</v>
       </c>
       <c r="R41" t="n">
-        <v>45.72274189765041</v>
+        <v>45.72274189765038</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>13.75623033525182</v>
       </c>
       <c r="T41" t="n">
-        <v>19.11500090181633</v>
+        <v>19.1150009018163</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>25.55917456883754</v>
+        <v>25.55917456883758</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37929,7 +37929,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>75.76299114596586</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37941,13 +37941,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>25.36401464748782</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>101.1270057934538</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>163.4540559702011</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>232.8010879988195</v>
+        <v>232.8010879988194</v>
       </c>
       <c r="L44" t="n">
-        <v>134.3405881908242</v>
+        <v>203.0435943363513</v>
       </c>
       <c r="M44" t="n">
-        <v>320.3983418206746</v>
+        <v>78.74430523858069</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>314.7609554717537</v>
       </c>
       <c r="O44" t="n">
-        <v>273.4046464681147</v>
+        <v>273.4046464681146</v>
       </c>
       <c r="P44" t="n">
-        <v>224.1589398511631</v>
+        <v>69.05767657436061</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>150.137653215981</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>45.72274189765038</v>
       </c>
       <c r="S44" t="n">
-        <v>13.75623033525185</v>
+        <v>13.75623033525182</v>
       </c>
       <c r="T44" t="n">
-        <v>19.11500090181633</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38099,10 +38099,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>25.55917456883758</v>
       </c>
       <c r="M45" t="n">
-        <v>25.55917456883754</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38178,13 +38178,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>101.1270057934538</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>101.1270057934537</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
